--- a/QA台帳.xlsx
+++ b/QA台帳.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kisim\OneDrive\Documents\GitHub\scheduleOnline\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\GitHub\scheduleOnline\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DD1901-C337-437E-B6CF-300F6CE0B123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="タイトル" sheetId="1" r:id="rId1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>QA台帳</t>
     <rPh sb="2" eb="4">
@@ -231,11 +232,52 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>藤田</t>
+    <rPh sb="0" eb="2">
+      <t>フジタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平根課長</t>
+    <rPh sb="0" eb="4">
+      <t>ヒラネカチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面レイアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「表示形式追加」と「表示形式編集」の画面レイアウトで、概要定義書には「その他」の追加・編集項目がありますが、その他で設定できる項目がデフォルトで用意されているものと同じですので、不要と考えますが、必要でしょうか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面レイアウト
+テーブル定義</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「表示形式追加」と「表示形式編集」の画面レイアウトですが、月と日は範囲が決まっていますが、年は何年から何年までを想定すればよろしいでしょうか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>条件によって表示/非表示が変わる項目については、パターンの数分レイアウトを記載する必要がありますか。
+また、上記必要がある場合、シートを分けるべきでしょうか。それともシートは1つで縦に並べて記載すべきでしょうか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面レイアウトの「使用する部品」項目で、表示範囲の記載がありますが、テーブル定義が決まっていないため桁数の記載ができないと考えております。
+この項目はテーブル定義の内容が決まるまで保留として、決まり次第記載でよろしいでしょうか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -381,6 +423,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -388,9 +433,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -436,18 +478,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -455,6 +485,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -499,7 +541,7 @@
         <xdr:cNvPr id="2" name="四角形: 角を丸くする 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E2B7A51-CFE6-4A31-8890-44A1AA7630A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E2B7A51-CFE6-4A31-8890-44A1AA7630A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -565,7 +607,7 @@
         <xdr:cNvPr id="3" name="吹き出し: 角を丸めた四角形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82338A54-90ED-4EAE-B8AD-BCC378C511AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82338A54-90ED-4EAE-B8AD-BCC378C511AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -920,7 +962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="S12:AM15"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
@@ -1035,12 +1077,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:BV101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1139,11 +1179,11 @@
       <c r="BQ2" s="14"/>
       <c r="BR2" s="14"/>
       <c r="BS2" s="15"/>
-      <c r="BT2" s="12" t="s">
+      <c r="BT2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="BU2" s="12"/>
-      <c r="BV2" s="12"/>
+      <c r="BU2" s="9"/>
+      <c r="BV2" s="9"/>
     </row>
     <row r="3" spans="1:74" ht="73.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4">
@@ -1153,22 +1193,22 @@
       <c r="B3" s="16">
         <v>44084</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="9" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="9" t="s">
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="12"/>
       <c r="O3" s="17" t="s">
         <v>14</v>
       </c>
@@ -1193,30 +1233,30 @@
       <c r="AH3" s="16">
         <v>44085</v>
       </c>
-      <c r="AI3" s="10"/>
-      <c r="AJ3" s="10"/>
-      <c r="AK3" s="11"/>
-      <c r="AL3" s="9" t="s">
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="11"/>
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="AM3" s="10"/>
-      <c r="AN3" s="10"/>
-      <c r="AO3" s="10"/>
-      <c r="AP3" s="10"/>
-      <c r="AQ3" s="11"/>
+      <c r="AM3" s="11"/>
+      <c r="AN3" s="11"/>
+      <c r="AO3" s="11"/>
+      <c r="AP3" s="11"/>
+      <c r="AQ3" s="12"/>
       <c r="AR3" s="16">
         <v>44084</v>
       </c>
-      <c r="AS3" s="10"/>
-      <c r="AT3" s="10"/>
-      <c r="AU3" s="11"/>
-      <c r="AV3" s="9" t="s">
+      <c r="AS3" s="11"/>
+      <c r="AT3" s="11"/>
+      <c r="AU3" s="12"/>
+      <c r="AV3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="AW3" s="10"/>
-      <c r="AX3" s="10"/>
-      <c r="AY3" s="10"/>
-      <c r="AZ3" s="11"/>
+      <c r="AW3" s="11"/>
+      <c r="AX3" s="11"/>
+      <c r="AY3" s="11"/>
+      <c r="AZ3" s="12"/>
       <c r="BA3" s="20" t="s">
         <v>18</v>
       </c>
@@ -1238,31 +1278,39 @@
       <c r="BQ3" s="21"/>
       <c r="BR3" s="21"/>
       <c r="BS3" s="22"/>
-      <c r="BT3" s="9" t="s">
+      <c r="BT3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="BU3" s="10"/>
-      <c r="BV3" s="11"/>
+      <c r="BU3" s="11"/>
+      <c r="BV3" s="12"/>
     </row>
     <row r="4" spans="1:74" ht="59.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A14" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="23">
+        <v>44408</v>
+      </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="6"/>
+      <c r="K4" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="8"/>
-      <c r="O4" s="24"/>
+      <c r="O4" s="24" t="s">
+        <v>22</v>
+      </c>
       <c r="P4" s="25"/>
       <c r="Q4" s="25"/>
       <c r="R4" s="25"/>
@@ -1281,11 +1329,15 @@
       <c r="AE4" s="25"/>
       <c r="AF4" s="25"/>
       <c r="AG4" s="26"/>
-      <c r="AH4" s="23"/>
+      <c r="AH4" s="23">
+        <v>44436</v>
+      </c>
       <c r="AI4" s="7"/>
       <c r="AJ4" s="7"/>
       <c r="AK4" s="8"/>
-      <c r="AL4" s="30"/>
+      <c r="AL4" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="AM4" s="7"/>
       <c r="AN4" s="7"/>
       <c r="AO4" s="7"/>
@@ -1300,25 +1352,25 @@
       <c r="AX4" s="7"/>
       <c r="AY4" s="7"/>
       <c r="AZ4" s="8"/>
-      <c r="BA4" s="31"/>
-      <c r="BB4" s="32"/>
-      <c r="BC4" s="32"/>
-      <c r="BD4" s="32"/>
-      <c r="BE4" s="32"/>
-      <c r="BF4" s="32"/>
-      <c r="BG4" s="32"/>
-      <c r="BH4" s="32"/>
-      <c r="BI4" s="32"/>
-      <c r="BJ4" s="32"/>
-      <c r="BK4" s="32"/>
-      <c r="BL4" s="32"/>
-      <c r="BM4" s="32"/>
-      <c r="BN4" s="32"/>
-      <c r="BO4" s="32"/>
-      <c r="BP4" s="32"/>
-      <c r="BQ4" s="32"/>
-      <c r="BR4" s="32"/>
-      <c r="BS4" s="33"/>
+      <c r="BA4" s="27"/>
+      <c r="BB4" s="28"/>
+      <c r="BC4" s="28"/>
+      <c r="BD4" s="28"/>
+      <c r="BE4" s="28"/>
+      <c r="BF4" s="28"/>
+      <c r="BG4" s="28"/>
+      <c r="BH4" s="28"/>
+      <c r="BI4" s="28"/>
+      <c r="BJ4" s="28"/>
+      <c r="BK4" s="28"/>
+      <c r="BL4" s="28"/>
+      <c r="BM4" s="28"/>
+      <c r="BN4" s="28"/>
+      <c r="BO4" s="28"/>
+      <c r="BP4" s="28"/>
+      <c r="BQ4" s="28"/>
+      <c r="BR4" s="28"/>
+      <c r="BS4" s="29"/>
       <c r="BT4" s="6"/>
       <c r="BU4" s="7"/>
       <c r="BV4" s="8"/>
@@ -1328,20 +1380,28 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="23"/>
+      <c r="B5" s="23">
+        <v>44408</v>
+      </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="6"/>
+      <c r="F5" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="6"/>
+      <c r="K5" s="31" t="s">
+        <v>23</v>
+      </c>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="8"/>
-      <c r="O5" s="24"/>
+      <c r="O5" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="P5" s="25"/>
       <c r="Q5" s="25"/>
       <c r="R5" s="25"/>
@@ -1360,11 +1420,15 @@
       <c r="AE5" s="25"/>
       <c r="AF5" s="25"/>
       <c r="AG5" s="26"/>
-      <c r="AH5" s="23"/>
+      <c r="AH5" s="23">
+        <v>44436</v>
+      </c>
       <c r="AI5" s="7"/>
       <c r="AJ5" s="7"/>
       <c r="AK5" s="8"/>
-      <c r="AL5" s="6"/>
+      <c r="AL5" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="AM5" s="7"/>
       <c r="AN5" s="7"/>
       <c r="AO5" s="7"/>
@@ -1379,25 +1443,25 @@
       <c r="AX5" s="7"/>
       <c r="AY5" s="7"/>
       <c r="AZ5" s="8"/>
-      <c r="BA5" s="31"/>
-      <c r="BB5" s="32"/>
-      <c r="BC5" s="32"/>
-      <c r="BD5" s="32"/>
-      <c r="BE5" s="32"/>
-      <c r="BF5" s="32"/>
-      <c r="BG5" s="32"/>
-      <c r="BH5" s="32"/>
-      <c r="BI5" s="32"/>
-      <c r="BJ5" s="32"/>
-      <c r="BK5" s="32"/>
-      <c r="BL5" s="32"/>
-      <c r="BM5" s="32"/>
-      <c r="BN5" s="32"/>
-      <c r="BO5" s="32"/>
-      <c r="BP5" s="32"/>
-      <c r="BQ5" s="32"/>
-      <c r="BR5" s="32"/>
-      <c r="BS5" s="33"/>
+      <c r="BA5" s="27"/>
+      <c r="BB5" s="28"/>
+      <c r="BC5" s="28"/>
+      <c r="BD5" s="28"/>
+      <c r="BE5" s="28"/>
+      <c r="BF5" s="28"/>
+      <c r="BG5" s="28"/>
+      <c r="BH5" s="28"/>
+      <c r="BI5" s="28"/>
+      <c r="BJ5" s="28"/>
+      <c r="BK5" s="28"/>
+      <c r="BL5" s="28"/>
+      <c r="BM5" s="28"/>
+      <c r="BN5" s="28"/>
+      <c r="BO5" s="28"/>
+      <c r="BP5" s="28"/>
+      <c r="BQ5" s="28"/>
+      <c r="BR5" s="28"/>
+      <c r="BS5" s="29"/>
       <c r="BT5" s="6"/>
       <c r="BU5" s="7"/>
       <c r="BV5" s="8"/>
@@ -1407,20 +1471,28 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="23">
+        <v>44408</v>
+      </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="6"/>
+      <c r="K6" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="8"/>
-      <c r="O6" s="24"/>
+      <c r="O6" s="24" t="s">
+        <v>25</v>
+      </c>
       <c r="P6" s="25"/>
       <c r="Q6" s="25"/>
       <c r="R6" s="25"/>
@@ -1439,11 +1511,15 @@
       <c r="AE6" s="25"/>
       <c r="AF6" s="25"/>
       <c r="AG6" s="26"/>
-      <c r="AH6" s="23"/>
+      <c r="AH6" s="23">
+        <v>44436</v>
+      </c>
       <c r="AI6" s="7"/>
       <c r="AJ6" s="7"/>
       <c r="AK6" s="8"/>
-      <c r="AL6" s="6"/>
+      <c r="AL6" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="AM6" s="7"/>
       <c r="AN6" s="7"/>
       <c r="AO6" s="7"/>
@@ -1458,48 +1534,56 @@
       <c r="AX6" s="7"/>
       <c r="AY6" s="7"/>
       <c r="AZ6" s="8"/>
-      <c r="BA6" s="31"/>
-      <c r="BB6" s="32"/>
-      <c r="BC6" s="32"/>
-      <c r="BD6" s="32"/>
-      <c r="BE6" s="32"/>
-      <c r="BF6" s="32"/>
-      <c r="BG6" s="32"/>
-      <c r="BH6" s="32"/>
-      <c r="BI6" s="32"/>
-      <c r="BJ6" s="32"/>
-      <c r="BK6" s="32"/>
-      <c r="BL6" s="32"/>
-      <c r="BM6" s="32"/>
-      <c r="BN6" s="32"/>
-      <c r="BO6" s="32"/>
-      <c r="BP6" s="32"/>
-      <c r="BQ6" s="32"/>
-      <c r="BR6" s="32"/>
-      <c r="BS6" s="33"/>
+      <c r="BA6" s="27"/>
+      <c r="BB6" s="28"/>
+      <c r="BC6" s="28"/>
+      <c r="BD6" s="28"/>
+      <c r="BE6" s="28"/>
+      <c r="BF6" s="28"/>
+      <c r="BG6" s="28"/>
+      <c r="BH6" s="28"/>
+      <c r="BI6" s="28"/>
+      <c r="BJ6" s="28"/>
+      <c r="BK6" s="28"/>
+      <c r="BL6" s="28"/>
+      <c r="BM6" s="28"/>
+      <c r="BN6" s="28"/>
+      <c r="BO6" s="28"/>
+      <c r="BP6" s="28"/>
+      <c r="BQ6" s="28"/>
+      <c r="BR6" s="28"/>
+      <c r="BS6" s="29"/>
       <c r="BT6" s="6"/>
       <c r="BU6" s="7"/>
       <c r="BV6" s="8"/>
     </row>
-    <row r="7" spans="1:74" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:74" ht="83.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="23"/>
+      <c r="B7" s="23">
+        <v>44408</v>
+      </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="6"/>
+      <c r="K7" s="31" t="s">
+        <v>23</v>
+      </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="8"/>
-      <c r="O7" s="24"/>
+      <c r="O7" s="24" t="s">
+        <v>26</v>
+      </c>
       <c r="P7" s="25"/>
       <c r="Q7" s="25"/>
       <c r="R7" s="25"/>
@@ -1518,11 +1602,15 @@
       <c r="AE7" s="25"/>
       <c r="AF7" s="25"/>
       <c r="AG7" s="26"/>
-      <c r="AH7" s="23"/>
+      <c r="AH7" s="23">
+        <v>44436</v>
+      </c>
       <c r="AI7" s="7"/>
       <c r="AJ7" s="7"/>
       <c r="AK7" s="8"/>
-      <c r="AL7" s="6"/>
+      <c r="AL7" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="AM7" s="7"/>
       <c r="AN7" s="7"/>
       <c r="AO7" s="7"/>
@@ -1537,25 +1625,25 @@
       <c r="AX7" s="7"/>
       <c r="AY7" s="7"/>
       <c r="AZ7" s="8"/>
-      <c r="BA7" s="31"/>
-      <c r="BB7" s="32"/>
-      <c r="BC7" s="32"/>
-      <c r="BD7" s="32"/>
-      <c r="BE7" s="32"/>
-      <c r="BF7" s="32"/>
-      <c r="BG7" s="32"/>
-      <c r="BH7" s="32"/>
-      <c r="BI7" s="32"/>
-      <c r="BJ7" s="32"/>
-      <c r="BK7" s="32"/>
-      <c r="BL7" s="32"/>
-      <c r="BM7" s="32"/>
-      <c r="BN7" s="32"/>
-      <c r="BO7" s="32"/>
-      <c r="BP7" s="32"/>
-      <c r="BQ7" s="32"/>
-      <c r="BR7" s="32"/>
-      <c r="BS7" s="33"/>
+      <c r="BA7" s="27"/>
+      <c r="BB7" s="28"/>
+      <c r="BC7" s="28"/>
+      <c r="BD7" s="28"/>
+      <c r="BE7" s="28"/>
+      <c r="BF7" s="28"/>
+      <c r="BG7" s="28"/>
+      <c r="BH7" s="28"/>
+      <c r="BI7" s="28"/>
+      <c r="BJ7" s="28"/>
+      <c r="BK7" s="28"/>
+      <c r="BL7" s="28"/>
+      <c r="BM7" s="28"/>
+      <c r="BN7" s="28"/>
+      <c r="BO7" s="28"/>
+      <c r="BP7" s="28"/>
+      <c r="BQ7" s="28"/>
+      <c r="BR7" s="28"/>
+      <c r="BS7" s="29"/>
       <c r="BT7" s="6"/>
       <c r="BU7" s="7"/>
       <c r="BV7" s="8"/>
@@ -1616,25 +1704,25 @@
       <c r="AX8" s="7"/>
       <c r="AY8" s="7"/>
       <c r="AZ8" s="8"/>
-      <c r="BA8" s="31"/>
-      <c r="BB8" s="32"/>
-      <c r="BC8" s="32"/>
-      <c r="BD8" s="32"/>
-      <c r="BE8" s="32"/>
-      <c r="BF8" s="32"/>
-      <c r="BG8" s="32"/>
-      <c r="BH8" s="32"/>
-      <c r="BI8" s="32"/>
-      <c r="BJ8" s="32"/>
-      <c r="BK8" s="32"/>
-      <c r="BL8" s="32"/>
-      <c r="BM8" s="32"/>
-      <c r="BN8" s="32"/>
-      <c r="BO8" s="32"/>
-      <c r="BP8" s="32"/>
-      <c r="BQ8" s="32"/>
-      <c r="BR8" s="32"/>
-      <c r="BS8" s="33"/>
+      <c r="BA8" s="27"/>
+      <c r="BB8" s="28"/>
+      <c r="BC8" s="28"/>
+      <c r="BD8" s="28"/>
+      <c r="BE8" s="28"/>
+      <c r="BF8" s="28"/>
+      <c r="BG8" s="28"/>
+      <c r="BH8" s="28"/>
+      <c r="BI8" s="28"/>
+      <c r="BJ8" s="28"/>
+      <c r="BK8" s="28"/>
+      <c r="BL8" s="28"/>
+      <c r="BM8" s="28"/>
+      <c r="BN8" s="28"/>
+      <c r="BO8" s="28"/>
+      <c r="BP8" s="28"/>
+      <c r="BQ8" s="28"/>
+      <c r="BR8" s="28"/>
+      <c r="BS8" s="29"/>
       <c r="BT8" s="6"/>
       <c r="BU8" s="7"/>
       <c r="BV8" s="8"/>
@@ -1695,25 +1783,25 @@
       <c r="AX9" s="7"/>
       <c r="AY9" s="7"/>
       <c r="AZ9" s="8"/>
-      <c r="BA9" s="31"/>
-      <c r="BB9" s="32"/>
-      <c r="BC9" s="32"/>
-      <c r="BD9" s="32"/>
-      <c r="BE9" s="32"/>
-      <c r="BF9" s="32"/>
-      <c r="BG9" s="32"/>
-      <c r="BH9" s="32"/>
-      <c r="BI9" s="32"/>
-      <c r="BJ9" s="32"/>
-      <c r="BK9" s="32"/>
-      <c r="BL9" s="32"/>
-      <c r="BM9" s="32"/>
-      <c r="BN9" s="32"/>
-      <c r="BO9" s="32"/>
-      <c r="BP9" s="32"/>
-      <c r="BQ9" s="32"/>
-      <c r="BR9" s="32"/>
-      <c r="BS9" s="33"/>
+      <c r="BA9" s="27"/>
+      <c r="BB9" s="28"/>
+      <c r="BC9" s="28"/>
+      <c r="BD9" s="28"/>
+      <c r="BE9" s="28"/>
+      <c r="BF9" s="28"/>
+      <c r="BG9" s="28"/>
+      <c r="BH9" s="28"/>
+      <c r="BI9" s="28"/>
+      <c r="BJ9" s="28"/>
+      <c r="BK9" s="28"/>
+      <c r="BL9" s="28"/>
+      <c r="BM9" s="28"/>
+      <c r="BN9" s="28"/>
+      <c r="BO9" s="28"/>
+      <c r="BP9" s="28"/>
+      <c r="BQ9" s="28"/>
+      <c r="BR9" s="28"/>
+      <c r="BS9" s="29"/>
       <c r="BT9" s="6"/>
       <c r="BU9" s="7"/>
       <c r="BV9" s="8"/>
@@ -1774,25 +1862,25 @@
       <c r="AX10" s="7"/>
       <c r="AY10" s="7"/>
       <c r="AZ10" s="8"/>
-      <c r="BA10" s="31"/>
-      <c r="BB10" s="32"/>
-      <c r="BC10" s="32"/>
-      <c r="BD10" s="32"/>
-      <c r="BE10" s="32"/>
-      <c r="BF10" s="32"/>
-      <c r="BG10" s="32"/>
-      <c r="BH10" s="32"/>
-      <c r="BI10" s="32"/>
-      <c r="BJ10" s="32"/>
-      <c r="BK10" s="32"/>
-      <c r="BL10" s="32"/>
-      <c r="BM10" s="32"/>
-      <c r="BN10" s="32"/>
-      <c r="BO10" s="32"/>
-      <c r="BP10" s="32"/>
-      <c r="BQ10" s="32"/>
-      <c r="BR10" s="32"/>
-      <c r="BS10" s="33"/>
+      <c r="BA10" s="27"/>
+      <c r="BB10" s="28"/>
+      <c r="BC10" s="28"/>
+      <c r="BD10" s="28"/>
+      <c r="BE10" s="28"/>
+      <c r="BF10" s="28"/>
+      <c r="BG10" s="28"/>
+      <c r="BH10" s="28"/>
+      <c r="BI10" s="28"/>
+      <c r="BJ10" s="28"/>
+      <c r="BK10" s="28"/>
+      <c r="BL10" s="28"/>
+      <c r="BM10" s="28"/>
+      <c r="BN10" s="28"/>
+      <c r="BO10" s="28"/>
+      <c r="BP10" s="28"/>
+      <c r="BQ10" s="28"/>
+      <c r="BR10" s="28"/>
+      <c r="BS10" s="29"/>
       <c r="BT10" s="6"/>
       <c r="BU10" s="7"/>
       <c r="BV10" s="8"/>
@@ -1838,7 +1926,7 @@
       <c r="AI11" s="7"/>
       <c r="AJ11" s="7"/>
       <c r="AK11" s="8"/>
-      <c r="AL11" s="30"/>
+      <c r="AL11" s="31"/>
       <c r="AM11" s="7"/>
       <c r="AN11" s="7"/>
       <c r="AO11" s="7"/>
@@ -1853,25 +1941,25 @@
       <c r="AX11" s="7"/>
       <c r="AY11" s="7"/>
       <c r="AZ11" s="8"/>
-      <c r="BA11" s="27"/>
-      <c r="BB11" s="32"/>
-      <c r="BC11" s="32"/>
-      <c r="BD11" s="32"/>
-      <c r="BE11" s="32"/>
-      <c r="BF11" s="32"/>
-      <c r="BG11" s="32"/>
-      <c r="BH11" s="32"/>
-      <c r="BI11" s="32"/>
-      <c r="BJ11" s="32"/>
-      <c r="BK11" s="32"/>
-      <c r="BL11" s="32"/>
-      <c r="BM11" s="32"/>
-      <c r="BN11" s="32"/>
-      <c r="BO11" s="32"/>
-      <c r="BP11" s="32"/>
-      <c r="BQ11" s="32"/>
-      <c r="BR11" s="32"/>
-      <c r="BS11" s="33"/>
+      <c r="BA11" s="30"/>
+      <c r="BB11" s="28"/>
+      <c r="BC11" s="28"/>
+      <c r="BD11" s="28"/>
+      <c r="BE11" s="28"/>
+      <c r="BF11" s="28"/>
+      <c r="BG11" s="28"/>
+      <c r="BH11" s="28"/>
+      <c r="BI11" s="28"/>
+      <c r="BJ11" s="28"/>
+      <c r="BK11" s="28"/>
+      <c r="BL11" s="28"/>
+      <c r="BM11" s="28"/>
+      <c r="BN11" s="28"/>
+      <c r="BO11" s="28"/>
+      <c r="BP11" s="28"/>
+      <c r="BQ11" s="28"/>
+      <c r="BR11" s="28"/>
+      <c r="BS11" s="29"/>
       <c r="BT11" s="6"/>
       <c r="BU11" s="7"/>
       <c r="BV11" s="8"/>
@@ -1932,25 +2020,25 @@
       <c r="AX12" s="7"/>
       <c r="AY12" s="7"/>
       <c r="AZ12" s="8"/>
-      <c r="BA12" s="31"/>
-      <c r="BB12" s="32"/>
-      <c r="BC12" s="32"/>
-      <c r="BD12" s="32"/>
-      <c r="BE12" s="32"/>
-      <c r="BF12" s="32"/>
-      <c r="BG12" s="32"/>
-      <c r="BH12" s="32"/>
-      <c r="BI12" s="32"/>
-      <c r="BJ12" s="32"/>
-      <c r="BK12" s="32"/>
-      <c r="BL12" s="32"/>
-      <c r="BM12" s="32"/>
-      <c r="BN12" s="32"/>
-      <c r="BO12" s="32"/>
-      <c r="BP12" s="32"/>
-      <c r="BQ12" s="32"/>
-      <c r="BR12" s="32"/>
-      <c r="BS12" s="33"/>
+      <c r="BA12" s="27"/>
+      <c r="BB12" s="28"/>
+      <c r="BC12" s="28"/>
+      <c r="BD12" s="28"/>
+      <c r="BE12" s="28"/>
+      <c r="BF12" s="28"/>
+      <c r="BG12" s="28"/>
+      <c r="BH12" s="28"/>
+      <c r="BI12" s="28"/>
+      <c r="BJ12" s="28"/>
+      <c r="BK12" s="28"/>
+      <c r="BL12" s="28"/>
+      <c r="BM12" s="28"/>
+      <c r="BN12" s="28"/>
+      <c r="BO12" s="28"/>
+      <c r="BP12" s="28"/>
+      <c r="BQ12" s="28"/>
+      <c r="BR12" s="28"/>
+      <c r="BS12" s="29"/>
       <c r="BT12" s="6"/>
       <c r="BU12" s="7"/>
       <c r="BV12" s="8"/>
@@ -2011,25 +2099,25 @@
       <c r="AX13" s="7"/>
       <c r="AY13" s="7"/>
       <c r="AZ13" s="8"/>
-      <c r="BA13" s="31"/>
-      <c r="BB13" s="32"/>
-      <c r="BC13" s="32"/>
-      <c r="BD13" s="32"/>
-      <c r="BE13" s="32"/>
-      <c r="BF13" s="32"/>
-      <c r="BG13" s="32"/>
-      <c r="BH13" s="32"/>
-      <c r="BI13" s="32"/>
-      <c r="BJ13" s="32"/>
-      <c r="BK13" s="32"/>
-      <c r="BL13" s="32"/>
-      <c r="BM13" s="32"/>
-      <c r="BN13" s="32"/>
-      <c r="BO13" s="32"/>
-      <c r="BP13" s="32"/>
-      <c r="BQ13" s="32"/>
-      <c r="BR13" s="32"/>
-      <c r="BS13" s="33"/>
+      <c r="BA13" s="27"/>
+      <c r="BB13" s="28"/>
+      <c r="BC13" s="28"/>
+      <c r="BD13" s="28"/>
+      <c r="BE13" s="28"/>
+      <c r="BF13" s="28"/>
+      <c r="BG13" s="28"/>
+      <c r="BH13" s="28"/>
+      <c r="BI13" s="28"/>
+      <c r="BJ13" s="28"/>
+      <c r="BK13" s="28"/>
+      <c r="BL13" s="28"/>
+      <c r="BM13" s="28"/>
+      <c r="BN13" s="28"/>
+      <c r="BO13" s="28"/>
+      <c r="BP13" s="28"/>
+      <c r="BQ13" s="28"/>
+      <c r="BR13" s="28"/>
+      <c r="BS13" s="29"/>
       <c r="BT13" s="6"/>
       <c r="BU13" s="7"/>
       <c r="BV13" s="8"/>
@@ -2090,25 +2178,25 @@
       <c r="AX14" s="7"/>
       <c r="AY14" s="7"/>
       <c r="AZ14" s="8"/>
-      <c r="BA14" s="27"/>
-      <c r="BB14" s="32"/>
-      <c r="BC14" s="32"/>
-      <c r="BD14" s="32"/>
-      <c r="BE14" s="32"/>
-      <c r="BF14" s="32"/>
-      <c r="BG14" s="32"/>
-      <c r="BH14" s="32"/>
-      <c r="BI14" s="32"/>
-      <c r="BJ14" s="32"/>
-      <c r="BK14" s="32"/>
-      <c r="BL14" s="32"/>
-      <c r="BM14" s="32"/>
-      <c r="BN14" s="32"/>
-      <c r="BO14" s="32"/>
-      <c r="BP14" s="32"/>
-      <c r="BQ14" s="32"/>
-      <c r="BR14" s="32"/>
-      <c r="BS14" s="33"/>
+      <c r="BA14" s="30"/>
+      <c r="BB14" s="28"/>
+      <c r="BC14" s="28"/>
+      <c r="BD14" s="28"/>
+      <c r="BE14" s="28"/>
+      <c r="BF14" s="28"/>
+      <c r="BG14" s="28"/>
+      <c r="BH14" s="28"/>
+      <c r="BI14" s="28"/>
+      <c r="BJ14" s="28"/>
+      <c r="BK14" s="28"/>
+      <c r="BL14" s="28"/>
+      <c r="BM14" s="28"/>
+      <c r="BN14" s="28"/>
+      <c r="BO14" s="28"/>
+      <c r="BP14" s="28"/>
+      <c r="BQ14" s="28"/>
+      <c r="BR14" s="28"/>
+      <c r="BS14" s="29"/>
       <c r="BT14" s="6"/>
       <c r="BU14" s="7"/>
       <c r="BV14" s="8"/>
@@ -2126,7 +2214,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="8"/>
-      <c r="K15" s="30"/>
+      <c r="K15" s="31"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="8"/>
@@ -2168,25 +2256,25 @@
       <c r="AX15" s="7"/>
       <c r="AY15" s="7"/>
       <c r="AZ15" s="8"/>
-      <c r="BA15" s="27"/>
-      <c r="BB15" s="28"/>
-      <c r="BC15" s="28"/>
-      <c r="BD15" s="28"/>
-      <c r="BE15" s="28"/>
-      <c r="BF15" s="28"/>
-      <c r="BG15" s="28"/>
-      <c r="BH15" s="28"/>
-      <c r="BI15" s="28"/>
-      <c r="BJ15" s="28"/>
-      <c r="BK15" s="28"/>
-      <c r="BL15" s="28"/>
-      <c r="BM15" s="28"/>
-      <c r="BN15" s="28"/>
-      <c r="BO15" s="28"/>
-      <c r="BP15" s="28"/>
-      <c r="BQ15" s="28"/>
-      <c r="BR15" s="28"/>
-      <c r="BS15" s="29"/>
+      <c r="BA15" s="30"/>
+      <c r="BB15" s="32"/>
+      <c r="BC15" s="32"/>
+      <c r="BD15" s="32"/>
+      <c r="BE15" s="32"/>
+      <c r="BF15" s="32"/>
+      <c r="BG15" s="32"/>
+      <c r="BH15" s="32"/>
+      <c r="BI15" s="32"/>
+      <c r="BJ15" s="32"/>
+      <c r="BK15" s="32"/>
+      <c r="BL15" s="32"/>
+      <c r="BM15" s="32"/>
+      <c r="BN15" s="32"/>
+      <c r="BO15" s="32"/>
+      <c r="BP15" s="32"/>
+      <c r="BQ15" s="32"/>
+      <c r="BR15" s="32"/>
+      <c r="BS15" s="33"/>
       <c r="BT15" s="6"/>
       <c r="BU15" s="7"/>
       <c r="BV15" s="8"/>
@@ -2247,25 +2335,25 @@
       <c r="AX16" s="7"/>
       <c r="AY16" s="7"/>
       <c r="AZ16" s="8"/>
-      <c r="BA16" s="27"/>
-      <c r="BB16" s="32"/>
-      <c r="BC16" s="32"/>
-      <c r="BD16" s="32"/>
-      <c r="BE16" s="32"/>
-      <c r="BF16" s="32"/>
-      <c r="BG16" s="32"/>
-      <c r="BH16" s="32"/>
-      <c r="BI16" s="32"/>
-      <c r="BJ16" s="32"/>
-      <c r="BK16" s="32"/>
-      <c r="BL16" s="32"/>
-      <c r="BM16" s="32"/>
-      <c r="BN16" s="32"/>
-      <c r="BO16" s="32"/>
-      <c r="BP16" s="32"/>
-      <c r="BQ16" s="32"/>
-      <c r="BR16" s="32"/>
-      <c r="BS16" s="33"/>
+      <c r="BA16" s="30"/>
+      <c r="BB16" s="28"/>
+      <c r="BC16" s="28"/>
+      <c r="BD16" s="28"/>
+      <c r="BE16" s="28"/>
+      <c r="BF16" s="28"/>
+      <c r="BG16" s="28"/>
+      <c r="BH16" s="28"/>
+      <c r="BI16" s="28"/>
+      <c r="BJ16" s="28"/>
+      <c r="BK16" s="28"/>
+      <c r="BL16" s="28"/>
+      <c r="BM16" s="28"/>
+      <c r="BN16" s="28"/>
+      <c r="BO16" s="28"/>
+      <c r="BP16" s="28"/>
+      <c r="BQ16" s="28"/>
+      <c r="BR16" s="28"/>
+      <c r="BS16" s="29"/>
       <c r="BT16" s="6"/>
       <c r="BU16" s="7"/>
       <c r="BV16" s="8"/>
@@ -2311,7 +2399,7 @@
       <c r="AI17" s="7"/>
       <c r="AJ17" s="7"/>
       <c r="AK17" s="8"/>
-      <c r="AL17" s="30"/>
+      <c r="AL17" s="31"/>
       <c r="AM17" s="7"/>
       <c r="AN17" s="7"/>
       <c r="AO17" s="7"/>
@@ -2326,25 +2414,25 @@
       <c r="AX17" s="7"/>
       <c r="AY17" s="7"/>
       <c r="AZ17" s="8"/>
-      <c r="BA17" s="27"/>
-      <c r="BB17" s="28"/>
-      <c r="BC17" s="28"/>
-      <c r="BD17" s="28"/>
-      <c r="BE17" s="28"/>
-      <c r="BF17" s="28"/>
-      <c r="BG17" s="28"/>
-      <c r="BH17" s="28"/>
-      <c r="BI17" s="28"/>
-      <c r="BJ17" s="28"/>
-      <c r="BK17" s="28"/>
-      <c r="BL17" s="28"/>
-      <c r="BM17" s="28"/>
-      <c r="BN17" s="28"/>
-      <c r="BO17" s="28"/>
-      <c r="BP17" s="28"/>
-      <c r="BQ17" s="28"/>
-      <c r="BR17" s="28"/>
-      <c r="BS17" s="29"/>
+      <c r="BA17" s="30"/>
+      <c r="BB17" s="32"/>
+      <c r="BC17" s="32"/>
+      <c r="BD17" s="32"/>
+      <c r="BE17" s="32"/>
+      <c r="BF17" s="32"/>
+      <c r="BG17" s="32"/>
+      <c r="BH17" s="32"/>
+      <c r="BI17" s="32"/>
+      <c r="BJ17" s="32"/>
+      <c r="BK17" s="32"/>
+      <c r="BL17" s="32"/>
+      <c r="BM17" s="32"/>
+      <c r="BN17" s="32"/>
+      <c r="BO17" s="32"/>
+      <c r="BP17" s="32"/>
+      <c r="BQ17" s="32"/>
+      <c r="BR17" s="32"/>
+      <c r="BS17" s="33"/>
       <c r="BT17" s="6"/>
       <c r="BU17" s="7"/>
       <c r="BV17" s="8"/>
@@ -2405,25 +2493,25 @@
       <c r="AX18" s="7"/>
       <c r="AY18" s="7"/>
       <c r="AZ18" s="8"/>
-      <c r="BA18" s="27"/>
-      <c r="BB18" s="32"/>
-      <c r="BC18" s="32"/>
-      <c r="BD18" s="32"/>
-      <c r="BE18" s="32"/>
-      <c r="BF18" s="32"/>
-      <c r="BG18" s="32"/>
-      <c r="BH18" s="32"/>
-      <c r="BI18" s="32"/>
-      <c r="BJ18" s="32"/>
-      <c r="BK18" s="32"/>
-      <c r="BL18" s="32"/>
-      <c r="BM18" s="32"/>
-      <c r="BN18" s="32"/>
-      <c r="BO18" s="32"/>
-      <c r="BP18" s="32"/>
-      <c r="BQ18" s="32"/>
-      <c r="BR18" s="32"/>
-      <c r="BS18" s="33"/>
+      <c r="BA18" s="30"/>
+      <c r="BB18" s="28"/>
+      <c r="BC18" s="28"/>
+      <c r="BD18" s="28"/>
+      <c r="BE18" s="28"/>
+      <c r="BF18" s="28"/>
+      <c r="BG18" s="28"/>
+      <c r="BH18" s="28"/>
+      <c r="BI18" s="28"/>
+      <c r="BJ18" s="28"/>
+      <c r="BK18" s="28"/>
+      <c r="BL18" s="28"/>
+      <c r="BM18" s="28"/>
+      <c r="BN18" s="28"/>
+      <c r="BO18" s="28"/>
+      <c r="BP18" s="28"/>
+      <c r="BQ18" s="28"/>
+      <c r="BR18" s="28"/>
+      <c r="BS18" s="29"/>
       <c r="BT18" s="6"/>
       <c r="BU18" s="7"/>
       <c r="BV18" s="8"/>
@@ -2441,7 +2529,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="30"/>
+      <c r="K19" s="31"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="8"/>
@@ -2483,25 +2571,25 @@
       <c r="AX19" s="7"/>
       <c r="AY19" s="7"/>
       <c r="AZ19" s="8"/>
-      <c r="BA19" s="27"/>
-      <c r="BB19" s="28"/>
-      <c r="BC19" s="28"/>
-      <c r="BD19" s="28"/>
-      <c r="BE19" s="28"/>
-      <c r="BF19" s="28"/>
-      <c r="BG19" s="28"/>
-      <c r="BH19" s="28"/>
-      <c r="BI19" s="28"/>
-      <c r="BJ19" s="28"/>
-      <c r="BK19" s="28"/>
-      <c r="BL19" s="28"/>
-      <c r="BM19" s="28"/>
-      <c r="BN19" s="28"/>
-      <c r="BO19" s="28"/>
-      <c r="BP19" s="28"/>
-      <c r="BQ19" s="28"/>
-      <c r="BR19" s="28"/>
-      <c r="BS19" s="29"/>
+      <c r="BA19" s="30"/>
+      <c r="BB19" s="32"/>
+      <c r="BC19" s="32"/>
+      <c r="BD19" s="32"/>
+      <c r="BE19" s="32"/>
+      <c r="BF19" s="32"/>
+      <c r="BG19" s="32"/>
+      <c r="BH19" s="32"/>
+      <c r="BI19" s="32"/>
+      <c r="BJ19" s="32"/>
+      <c r="BK19" s="32"/>
+      <c r="BL19" s="32"/>
+      <c r="BM19" s="32"/>
+      <c r="BN19" s="32"/>
+      <c r="BO19" s="32"/>
+      <c r="BP19" s="32"/>
+      <c r="BQ19" s="32"/>
+      <c r="BR19" s="32"/>
+      <c r="BS19" s="33"/>
       <c r="BT19" s="6"/>
       <c r="BU19" s="7"/>
       <c r="BV19" s="8"/>
@@ -2562,25 +2650,25 @@
       <c r="AX20" s="7"/>
       <c r="AY20" s="7"/>
       <c r="AZ20" s="8"/>
-      <c r="BA20" s="27"/>
-      <c r="BB20" s="32"/>
-      <c r="BC20" s="32"/>
-      <c r="BD20" s="32"/>
-      <c r="BE20" s="32"/>
-      <c r="BF20" s="32"/>
-      <c r="BG20" s="32"/>
-      <c r="BH20" s="32"/>
-      <c r="BI20" s="32"/>
-      <c r="BJ20" s="32"/>
-      <c r="BK20" s="32"/>
-      <c r="BL20" s="32"/>
-      <c r="BM20" s="32"/>
-      <c r="BN20" s="32"/>
-      <c r="BO20" s="32"/>
-      <c r="BP20" s="32"/>
-      <c r="BQ20" s="32"/>
-      <c r="BR20" s="32"/>
-      <c r="BS20" s="33"/>
+      <c r="BA20" s="30"/>
+      <c r="BB20" s="28"/>
+      <c r="BC20" s="28"/>
+      <c r="BD20" s="28"/>
+      <c r="BE20" s="28"/>
+      <c r="BF20" s="28"/>
+      <c r="BG20" s="28"/>
+      <c r="BH20" s="28"/>
+      <c r="BI20" s="28"/>
+      <c r="BJ20" s="28"/>
+      <c r="BK20" s="28"/>
+      <c r="BL20" s="28"/>
+      <c r="BM20" s="28"/>
+      <c r="BN20" s="28"/>
+      <c r="BO20" s="28"/>
+      <c r="BP20" s="28"/>
+      <c r="BQ20" s="28"/>
+      <c r="BR20" s="28"/>
+      <c r="BS20" s="29"/>
       <c r="BT20" s="6"/>
       <c r="BU20" s="7"/>
       <c r="BV20" s="8"/>
@@ -2599,7 +2687,7 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="8"/>
-      <c r="K21" s="30"/>
+      <c r="K21" s="31"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="8"/>
@@ -2641,25 +2729,25 @@
       <c r="AX21" s="7"/>
       <c r="AY21" s="7"/>
       <c r="AZ21" s="8"/>
-      <c r="BA21" s="31"/>
-      <c r="BB21" s="32"/>
-      <c r="BC21" s="32"/>
-      <c r="BD21" s="32"/>
-      <c r="BE21" s="32"/>
-      <c r="BF21" s="32"/>
-      <c r="BG21" s="32"/>
-      <c r="BH21" s="32"/>
-      <c r="BI21" s="32"/>
-      <c r="BJ21" s="32"/>
-      <c r="BK21" s="32"/>
-      <c r="BL21" s="32"/>
-      <c r="BM21" s="32"/>
-      <c r="BN21" s="32"/>
-      <c r="BO21" s="32"/>
-      <c r="BP21" s="32"/>
-      <c r="BQ21" s="32"/>
-      <c r="BR21" s="32"/>
-      <c r="BS21" s="33"/>
+      <c r="BA21" s="27"/>
+      <c r="BB21" s="28"/>
+      <c r="BC21" s="28"/>
+      <c r="BD21" s="28"/>
+      <c r="BE21" s="28"/>
+      <c r="BF21" s="28"/>
+      <c r="BG21" s="28"/>
+      <c r="BH21" s="28"/>
+      <c r="BI21" s="28"/>
+      <c r="BJ21" s="28"/>
+      <c r="BK21" s="28"/>
+      <c r="BL21" s="28"/>
+      <c r="BM21" s="28"/>
+      <c r="BN21" s="28"/>
+      <c r="BO21" s="28"/>
+      <c r="BP21" s="28"/>
+      <c r="BQ21" s="28"/>
+      <c r="BR21" s="28"/>
+      <c r="BS21" s="29"/>
       <c r="BT21" s="6"/>
       <c r="BU21" s="7"/>
       <c r="BV21" s="8"/>
@@ -2717,25 +2805,25 @@
       <c r="AX22" s="7"/>
       <c r="AY22" s="7"/>
       <c r="AZ22" s="8"/>
-      <c r="BA22" s="31"/>
-      <c r="BB22" s="32"/>
-      <c r="BC22" s="32"/>
-      <c r="BD22" s="32"/>
-      <c r="BE22" s="32"/>
-      <c r="BF22" s="32"/>
-      <c r="BG22" s="32"/>
-      <c r="BH22" s="32"/>
-      <c r="BI22" s="32"/>
-      <c r="BJ22" s="32"/>
-      <c r="BK22" s="32"/>
-      <c r="BL22" s="32"/>
-      <c r="BM22" s="32"/>
-      <c r="BN22" s="32"/>
-      <c r="BO22" s="32"/>
-      <c r="BP22" s="32"/>
-      <c r="BQ22" s="32"/>
-      <c r="BR22" s="32"/>
-      <c r="BS22" s="33"/>
+      <c r="BA22" s="27"/>
+      <c r="BB22" s="28"/>
+      <c r="BC22" s="28"/>
+      <c r="BD22" s="28"/>
+      <c r="BE22" s="28"/>
+      <c r="BF22" s="28"/>
+      <c r="BG22" s="28"/>
+      <c r="BH22" s="28"/>
+      <c r="BI22" s="28"/>
+      <c r="BJ22" s="28"/>
+      <c r="BK22" s="28"/>
+      <c r="BL22" s="28"/>
+      <c r="BM22" s="28"/>
+      <c r="BN22" s="28"/>
+      <c r="BO22" s="28"/>
+      <c r="BP22" s="28"/>
+      <c r="BQ22" s="28"/>
+      <c r="BR22" s="28"/>
+      <c r="BS22" s="29"/>
       <c r="BT22" s="6"/>
       <c r="BU22" s="7"/>
       <c r="BV22" s="8"/>
@@ -2793,25 +2881,25 @@
       <c r="AX23" s="7"/>
       <c r="AY23" s="7"/>
       <c r="AZ23" s="8"/>
-      <c r="BA23" s="31"/>
-      <c r="BB23" s="32"/>
-      <c r="BC23" s="32"/>
-      <c r="BD23" s="32"/>
-      <c r="BE23" s="32"/>
-      <c r="BF23" s="32"/>
-      <c r="BG23" s="32"/>
-      <c r="BH23" s="32"/>
-      <c r="BI23" s="32"/>
-      <c r="BJ23" s="32"/>
-      <c r="BK23" s="32"/>
-      <c r="BL23" s="32"/>
-      <c r="BM23" s="32"/>
-      <c r="BN23" s="32"/>
-      <c r="BO23" s="32"/>
-      <c r="BP23" s="32"/>
-      <c r="BQ23" s="32"/>
-      <c r="BR23" s="32"/>
-      <c r="BS23" s="33"/>
+      <c r="BA23" s="27"/>
+      <c r="BB23" s="28"/>
+      <c r="BC23" s="28"/>
+      <c r="BD23" s="28"/>
+      <c r="BE23" s="28"/>
+      <c r="BF23" s="28"/>
+      <c r="BG23" s="28"/>
+      <c r="BH23" s="28"/>
+      <c r="BI23" s="28"/>
+      <c r="BJ23" s="28"/>
+      <c r="BK23" s="28"/>
+      <c r="BL23" s="28"/>
+      <c r="BM23" s="28"/>
+      <c r="BN23" s="28"/>
+      <c r="BO23" s="28"/>
+      <c r="BP23" s="28"/>
+      <c r="BQ23" s="28"/>
+      <c r="BR23" s="28"/>
+      <c r="BS23" s="29"/>
       <c r="BT23" s="6"/>
       <c r="BU23" s="7"/>
       <c r="BV23" s="8"/>
@@ -2869,25 +2957,25 @@
       <c r="AX24" s="7"/>
       <c r="AY24" s="7"/>
       <c r="AZ24" s="8"/>
-      <c r="BA24" s="31"/>
-      <c r="BB24" s="32"/>
-      <c r="BC24" s="32"/>
-      <c r="BD24" s="32"/>
-      <c r="BE24" s="32"/>
-      <c r="BF24" s="32"/>
-      <c r="BG24" s="32"/>
-      <c r="BH24" s="32"/>
-      <c r="BI24" s="32"/>
-      <c r="BJ24" s="32"/>
-      <c r="BK24" s="32"/>
-      <c r="BL24" s="32"/>
-      <c r="BM24" s="32"/>
-      <c r="BN24" s="32"/>
-      <c r="BO24" s="32"/>
-      <c r="BP24" s="32"/>
-      <c r="BQ24" s="32"/>
-      <c r="BR24" s="32"/>
-      <c r="BS24" s="33"/>
+      <c r="BA24" s="27"/>
+      <c r="BB24" s="28"/>
+      <c r="BC24" s="28"/>
+      <c r="BD24" s="28"/>
+      <c r="BE24" s="28"/>
+      <c r="BF24" s="28"/>
+      <c r="BG24" s="28"/>
+      <c r="BH24" s="28"/>
+      <c r="BI24" s="28"/>
+      <c r="BJ24" s="28"/>
+      <c r="BK24" s="28"/>
+      <c r="BL24" s="28"/>
+      <c r="BM24" s="28"/>
+      <c r="BN24" s="28"/>
+      <c r="BO24" s="28"/>
+      <c r="BP24" s="28"/>
+      <c r="BQ24" s="28"/>
+      <c r="BR24" s="28"/>
+      <c r="BS24" s="29"/>
       <c r="BT24" s="6"/>
       <c r="BU24" s="7"/>
       <c r="BV24" s="8"/>
@@ -2945,25 +3033,25 @@
       <c r="AX25" s="7"/>
       <c r="AY25" s="7"/>
       <c r="AZ25" s="8"/>
-      <c r="BA25" s="31"/>
-      <c r="BB25" s="32"/>
-      <c r="BC25" s="32"/>
-      <c r="BD25" s="32"/>
-      <c r="BE25" s="32"/>
-      <c r="BF25" s="32"/>
-      <c r="BG25" s="32"/>
-      <c r="BH25" s="32"/>
-      <c r="BI25" s="32"/>
-      <c r="BJ25" s="32"/>
-      <c r="BK25" s="32"/>
-      <c r="BL25" s="32"/>
-      <c r="BM25" s="32"/>
-      <c r="BN25" s="32"/>
-      <c r="BO25" s="32"/>
-      <c r="BP25" s="32"/>
-      <c r="BQ25" s="32"/>
-      <c r="BR25" s="32"/>
-      <c r="BS25" s="33"/>
+      <c r="BA25" s="27"/>
+      <c r="BB25" s="28"/>
+      <c r="BC25" s="28"/>
+      <c r="BD25" s="28"/>
+      <c r="BE25" s="28"/>
+      <c r="BF25" s="28"/>
+      <c r="BG25" s="28"/>
+      <c r="BH25" s="28"/>
+      <c r="BI25" s="28"/>
+      <c r="BJ25" s="28"/>
+      <c r="BK25" s="28"/>
+      <c r="BL25" s="28"/>
+      <c r="BM25" s="28"/>
+      <c r="BN25" s="28"/>
+      <c r="BO25" s="28"/>
+      <c r="BP25" s="28"/>
+      <c r="BQ25" s="28"/>
+      <c r="BR25" s="28"/>
+      <c r="BS25" s="29"/>
       <c r="BT25" s="6"/>
       <c r="BU25" s="7"/>
       <c r="BV25" s="8"/>
@@ -3021,25 +3109,25 @@
       <c r="AX26" s="7"/>
       <c r="AY26" s="7"/>
       <c r="AZ26" s="8"/>
-      <c r="BA26" s="31"/>
-      <c r="BB26" s="32"/>
-      <c r="BC26" s="32"/>
-      <c r="BD26" s="32"/>
-      <c r="BE26" s="32"/>
-      <c r="BF26" s="32"/>
-      <c r="BG26" s="32"/>
-      <c r="BH26" s="32"/>
-      <c r="BI26" s="32"/>
-      <c r="BJ26" s="32"/>
-      <c r="BK26" s="32"/>
-      <c r="BL26" s="32"/>
-      <c r="BM26" s="32"/>
-      <c r="BN26" s="32"/>
-      <c r="BO26" s="32"/>
-      <c r="BP26" s="32"/>
-      <c r="BQ26" s="32"/>
-      <c r="BR26" s="32"/>
-      <c r="BS26" s="33"/>
+      <c r="BA26" s="27"/>
+      <c r="BB26" s="28"/>
+      <c r="BC26" s="28"/>
+      <c r="BD26" s="28"/>
+      <c r="BE26" s="28"/>
+      <c r="BF26" s="28"/>
+      <c r="BG26" s="28"/>
+      <c r="BH26" s="28"/>
+      <c r="BI26" s="28"/>
+      <c r="BJ26" s="28"/>
+      <c r="BK26" s="28"/>
+      <c r="BL26" s="28"/>
+      <c r="BM26" s="28"/>
+      <c r="BN26" s="28"/>
+      <c r="BO26" s="28"/>
+      <c r="BP26" s="28"/>
+      <c r="BQ26" s="28"/>
+      <c r="BR26" s="28"/>
+      <c r="BS26" s="29"/>
       <c r="BT26" s="6"/>
       <c r="BU26" s="7"/>
       <c r="BV26" s="8"/>
@@ -3097,25 +3185,25 @@
       <c r="AX27" s="7"/>
       <c r="AY27" s="7"/>
       <c r="AZ27" s="8"/>
-      <c r="BA27" s="31"/>
-      <c r="BB27" s="32"/>
-      <c r="BC27" s="32"/>
-      <c r="BD27" s="32"/>
-      <c r="BE27" s="32"/>
-      <c r="BF27" s="32"/>
-      <c r="BG27" s="32"/>
-      <c r="BH27" s="32"/>
-      <c r="BI27" s="32"/>
-      <c r="BJ27" s="32"/>
-      <c r="BK27" s="32"/>
-      <c r="BL27" s="32"/>
-      <c r="BM27" s="32"/>
-      <c r="BN27" s="32"/>
-      <c r="BO27" s="32"/>
-      <c r="BP27" s="32"/>
-      <c r="BQ27" s="32"/>
-      <c r="BR27" s="32"/>
-      <c r="BS27" s="33"/>
+      <c r="BA27" s="27"/>
+      <c r="BB27" s="28"/>
+      <c r="BC27" s="28"/>
+      <c r="BD27" s="28"/>
+      <c r="BE27" s="28"/>
+      <c r="BF27" s="28"/>
+      <c r="BG27" s="28"/>
+      <c r="BH27" s="28"/>
+      <c r="BI27" s="28"/>
+      <c r="BJ27" s="28"/>
+      <c r="BK27" s="28"/>
+      <c r="BL27" s="28"/>
+      <c r="BM27" s="28"/>
+      <c r="BN27" s="28"/>
+      <c r="BO27" s="28"/>
+      <c r="BP27" s="28"/>
+      <c r="BQ27" s="28"/>
+      <c r="BR27" s="28"/>
+      <c r="BS27" s="29"/>
       <c r="BT27" s="6"/>
       <c r="BU27" s="7"/>
       <c r="BV27" s="8"/>
@@ -3173,25 +3261,25 @@
       <c r="AX28" s="7"/>
       <c r="AY28" s="7"/>
       <c r="AZ28" s="8"/>
-      <c r="BA28" s="31"/>
-      <c r="BB28" s="32"/>
-      <c r="BC28" s="32"/>
-      <c r="BD28" s="32"/>
-      <c r="BE28" s="32"/>
-      <c r="BF28" s="32"/>
-      <c r="BG28" s="32"/>
-      <c r="BH28" s="32"/>
-      <c r="BI28" s="32"/>
-      <c r="BJ28" s="32"/>
-      <c r="BK28" s="32"/>
-      <c r="BL28" s="32"/>
-      <c r="BM28" s="32"/>
-      <c r="BN28" s="32"/>
-      <c r="BO28" s="32"/>
-      <c r="BP28" s="32"/>
-      <c r="BQ28" s="32"/>
-      <c r="BR28" s="32"/>
-      <c r="BS28" s="33"/>
+      <c r="BA28" s="27"/>
+      <c r="BB28" s="28"/>
+      <c r="BC28" s="28"/>
+      <c r="BD28" s="28"/>
+      <c r="BE28" s="28"/>
+      <c r="BF28" s="28"/>
+      <c r="BG28" s="28"/>
+      <c r="BH28" s="28"/>
+      <c r="BI28" s="28"/>
+      <c r="BJ28" s="28"/>
+      <c r="BK28" s="28"/>
+      <c r="BL28" s="28"/>
+      <c r="BM28" s="28"/>
+      <c r="BN28" s="28"/>
+      <c r="BO28" s="28"/>
+      <c r="BP28" s="28"/>
+      <c r="BQ28" s="28"/>
+      <c r="BR28" s="28"/>
+      <c r="BS28" s="29"/>
       <c r="BT28" s="6"/>
       <c r="BU28" s="7"/>
       <c r="BV28" s="8"/>
@@ -3249,25 +3337,25 @@
       <c r="AX29" s="7"/>
       <c r="AY29" s="7"/>
       <c r="AZ29" s="8"/>
-      <c r="BA29" s="31"/>
-      <c r="BB29" s="32"/>
-      <c r="BC29" s="32"/>
-      <c r="BD29" s="32"/>
-      <c r="BE29" s="32"/>
-      <c r="BF29" s="32"/>
-      <c r="BG29" s="32"/>
-      <c r="BH29" s="32"/>
-      <c r="BI29" s="32"/>
-      <c r="BJ29" s="32"/>
-      <c r="BK29" s="32"/>
-      <c r="BL29" s="32"/>
-      <c r="BM29" s="32"/>
-      <c r="BN29" s="32"/>
-      <c r="BO29" s="32"/>
-      <c r="BP29" s="32"/>
-      <c r="BQ29" s="32"/>
-      <c r="BR29" s="32"/>
-      <c r="BS29" s="33"/>
+      <c r="BA29" s="27"/>
+      <c r="BB29" s="28"/>
+      <c r="BC29" s="28"/>
+      <c r="BD29" s="28"/>
+      <c r="BE29" s="28"/>
+      <c r="BF29" s="28"/>
+      <c r="BG29" s="28"/>
+      <c r="BH29" s="28"/>
+      <c r="BI29" s="28"/>
+      <c r="BJ29" s="28"/>
+      <c r="BK29" s="28"/>
+      <c r="BL29" s="28"/>
+      <c r="BM29" s="28"/>
+      <c r="BN29" s="28"/>
+      <c r="BO29" s="28"/>
+      <c r="BP29" s="28"/>
+      <c r="BQ29" s="28"/>
+      <c r="BR29" s="28"/>
+      <c r="BS29" s="29"/>
       <c r="BT29" s="6"/>
       <c r="BU29" s="7"/>
       <c r="BV29" s="8"/>
@@ -3325,25 +3413,25 @@
       <c r="AX30" s="7"/>
       <c r="AY30" s="7"/>
       <c r="AZ30" s="8"/>
-      <c r="BA30" s="31"/>
-      <c r="BB30" s="32"/>
-      <c r="BC30" s="32"/>
-      <c r="BD30" s="32"/>
-      <c r="BE30" s="32"/>
-      <c r="BF30" s="32"/>
-      <c r="BG30" s="32"/>
-      <c r="BH30" s="32"/>
-      <c r="BI30" s="32"/>
-      <c r="BJ30" s="32"/>
-      <c r="BK30" s="32"/>
-      <c r="BL30" s="32"/>
-      <c r="BM30" s="32"/>
-      <c r="BN30" s="32"/>
-      <c r="BO30" s="32"/>
-      <c r="BP30" s="32"/>
-      <c r="BQ30" s="32"/>
-      <c r="BR30" s="32"/>
-      <c r="BS30" s="33"/>
+      <c r="BA30" s="27"/>
+      <c r="BB30" s="28"/>
+      <c r="BC30" s="28"/>
+      <c r="BD30" s="28"/>
+      <c r="BE30" s="28"/>
+      <c r="BF30" s="28"/>
+      <c r="BG30" s="28"/>
+      <c r="BH30" s="28"/>
+      <c r="BI30" s="28"/>
+      <c r="BJ30" s="28"/>
+      <c r="BK30" s="28"/>
+      <c r="BL30" s="28"/>
+      <c r="BM30" s="28"/>
+      <c r="BN30" s="28"/>
+      <c r="BO30" s="28"/>
+      <c r="BP30" s="28"/>
+      <c r="BQ30" s="28"/>
+      <c r="BR30" s="28"/>
+      <c r="BS30" s="29"/>
       <c r="BT30" s="6"/>
       <c r="BU30" s="7"/>
       <c r="BV30" s="8"/>
@@ -3401,25 +3489,25 @@
       <c r="AX31" s="7"/>
       <c r="AY31" s="7"/>
       <c r="AZ31" s="8"/>
-      <c r="BA31" s="31"/>
-      <c r="BB31" s="32"/>
-      <c r="BC31" s="32"/>
-      <c r="BD31" s="32"/>
-      <c r="BE31" s="32"/>
-      <c r="BF31" s="32"/>
-      <c r="BG31" s="32"/>
-      <c r="BH31" s="32"/>
-      <c r="BI31" s="32"/>
-      <c r="BJ31" s="32"/>
-      <c r="BK31" s="32"/>
-      <c r="BL31" s="32"/>
-      <c r="BM31" s="32"/>
-      <c r="BN31" s="32"/>
-      <c r="BO31" s="32"/>
-      <c r="BP31" s="32"/>
-      <c r="BQ31" s="32"/>
-      <c r="BR31" s="32"/>
-      <c r="BS31" s="33"/>
+      <c r="BA31" s="27"/>
+      <c r="BB31" s="28"/>
+      <c r="BC31" s="28"/>
+      <c r="BD31" s="28"/>
+      <c r="BE31" s="28"/>
+      <c r="BF31" s="28"/>
+      <c r="BG31" s="28"/>
+      <c r="BH31" s="28"/>
+      <c r="BI31" s="28"/>
+      <c r="BJ31" s="28"/>
+      <c r="BK31" s="28"/>
+      <c r="BL31" s="28"/>
+      <c r="BM31" s="28"/>
+      <c r="BN31" s="28"/>
+      <c r="BO31" s="28"/>
+      <c r="BP31" s="28"/>
+      <c r="BQ31" s="28"/>
+      <c r="BR31" s="28"/>
+      <c r="BS31" s="29"/>
       <c r="BT31" s="6"/>
       <c r="BU31" s="7"/>
       <c r="BV31" s="8"/>
@@ -3477,25 +3565,25 @@
       <c r="AX32" s="7"/>
       <c r="AY32" s="7"/>
       <c r="AZ32" s="8"/>
-      <c r="BA32" s="31"/>
-      <c r="BB32" s="32"/>
-      <c r="BC32" s="32"/>
-      <c r="BD32" s="32"/>
-      <c r="BE32" s="32"/>
-      <c r="BF32" s="32"/>
-      <c r="BG32" s="32"/>
-      <c r="BH32" s="32"/>
-      <c r="BI32" s="32"/>
-      <c r="BJ32" s="32"/>
-      <c r="BK32" s="32"/>
-      <c r="BL32" s="32"/>
-      <c r="BM32" s="32"/>
-      <c r="BN32" s="32"/>
-      <c r="BO32" s="32"/>
-      <c r="BP32" s="32"/>
-      <c r="BQ32" s="32"/>
-      <c r="BR32" s="32"/>
-      <c r="BS32" s="33"/>
+      <c r="BA32" s="27"/>
+      <c r="BB32" s="28"/>
+      <c r="BC32" s="28"/>
+      <c r="BD32" s="28"/>
+      <c r="BE32" s="28"/>
+      <c r="BF32" s="28"/>
+      <c r="BG32" s="28"/>
+      <c r="BH32" s="28"/>
+      <c r="BI32" s="28"/>
+      <c r="BJ32" s="28"/>
+      <c r="BK32" s="28"/>
+      <c r="BL32" s="28"/>
+      <c r="BM32" s="28"/>
+      <c r="BN32" s="28"/>
+      <c r="BO32" s="28"/>
+      <c r="BP32" s="28"/>
+      <c r="BQ32" s="28"/>
+      <c r="BR32" s="28"/>
+      <c r="BS32" s="29"/>
       <c r="BT32" s="6"/>
       <c r="BU32" s="7"/>
       <c r="BV32" s="8"/>
@@ -3553,25 +3641,25 @@
       <c r="AX33" s="7"/>
       <c r="AY33" s="7"/>
       <c r="AZ33" s="8"/>
-      <c r="BA33" s="31"/>
-      <c r="BB33" s="32"/>
-      <c r="BC33" s="32"/>
-      <c r="BD33" s="32"/>
-      <c r="BE33" s="32"/>
-      <c r="BF33" s="32"/>
-      <c r="BG33" s="32"/>
-      <c r="BH33" s="32"/>
-      <c r="BI33" s="32"/>
-      <c r="BJ33" s="32"/>
-      <c r="BK33" s="32"/>
-      <c r="BL33" s="32"/>
-      <c r="BM33" s="32"/>
-      <c r="BN33" s="32"/>
-      <c r="BO33" s="32"/>
-      <c r="BP33" s="32"/>
-      <c r="BQ33" s="32"/>
-      <c r="BR33" s="32"/>
-      <c r="BS33" s="33"/>
+      <c r="BA33" s="27"/>
+      <c r="BB33" s="28"/>
+      <c r="BC33" s="28"/>
+      <c r="BD33" s="28"/>
+      <c r="BE33" s="28"/>
+      <c r="BF33" s="28"/>
+      <c r="BG33" s="28"/>
+      <c r="BH33" s="28"/>
+      <c r="BI33" s="28"/>
+      <c r="BJ33" s="28"/>
+      <c r="BK33" s="28"/>
+      <c r="BL33" s="28"/>
+      <c r="BM33" s="28"/>
+      <c r="BN33" s="28"/>
+      <c r="BO33" s="28"/>
+      <c r="BP33" s="28"/>
+      <c r="BQ33" s="28"/>
+      <c r="BR33" s="28"/>
+      <c r="BS33" s="29"/>
       <c r="BT33" s="6"/>
       <c r="BU33" s="7"/>
       <c r="BV33" s="8"/>
@@ -3629,25 +3717,25 @@
       <c r="AX34" s="7"/>
       <c r="AY34" s="7"/>
       <c r="AZ34" s="8"/>
-      <c r="BA34" s="31"/>
-      <c r="BB34" s="32"/>
-      <c r="BC34" s="32"/>
-      <c r="BD34" s="32"/>
-      <c r="BE34" s="32"/>
-      <c r="BF34" s="32"/>
-      <c r="BG34" s="32"/>
-      <c r="BH34" s="32"/>
-      <c r="BI34" s="32"/>
-      <c r="BJ34" s="32"/>
-      <c r="BK34" s="32"/>
-      <c r="BL34" s="32"/>
-      <c r="BM34" s="32"/>
-      <c r="BN34" s="32"/>
-      <c r="BO34" s="32"/>
-      <c r="BP34" s="32"/>
-      <c r="BQ34" s="32"/>
-      <c r="BR34" s="32"/>
-      <c r="BS34" s="33"/>
+      <c r="BA34" s="27"/>
+      <c r="BB34" s="28"/>
+      <c r="BC34" s="28"/>
+      <c r="BD34" s="28"/>
+      <c r="BE34" s="28"/>
+      <c r="BF34" s="28"/>
+      <c r="BG34" s="28"/>
+      <c r="BH34" s="28"/>
+      <c r="BI34" s="28"/>
+      <c r="BJ34" s="28"/>
+      <c r="BK34" s="28"/>
+      <c r="BL34" s="28"/>
+      <c r="BM34" s="28"/>
+      <c r="BN34" s="28"/>
+      <c r="BO34" s="28"/>
+      <c r="BP34" s="28"/>
+      <c r="BQ34" s="28"/>
+      <c r="BR34" s="28"/>
+      <c r="BS34" s="29"/>
       <c r="BT34" s="6"/>
       <c r="BU34" s="7"/>
       <c r="BV34" s="8"/>
@@ -3705,25 +3793,25 @@
       <c r="AX35" s="7"/>
       <c r="AY35" s="7"/>
       <c r="AZ35" s="8"/>
-      <c r="BA35" s="31"/>
-      <c r="BB35" s="32"/>
-      <c r="BC35" s="32"/>
-      <c r="BD35" s="32"/>
-      <c r="BE35" s="32"/>
-      <c r="BF35" s="32"/>
-      <c r="BG35" s="32"/>
-      <c r="BH35" s="32"/>
-      <c r="BI35" s="32"/>
-      <c r="BJ35" s="32"/>
-      <c r="BK35" s="32"/>
-      <c r="BL35" s="32"/>
-      <c r="BM35" s="32"/>
-      <c r="BN35" s="32"/>
-      <c r="BO35" s="32"/>
-      <c r="BP35" s="32"/>
-      <c r="BQ35" s="32"/>
-      <c r="BR35" s="32"/>
-      <c r="BS35" s="33"/>
+      <c r="BA35" s="27"/>
+      <c r="BB35" s="28"/>
+      <c r="BC35" s="28"/>
+      <c r="BD35" s="28"/>
+      <c r="BE35" s="28"/>
+      <c r="BF35" s="28"/>
+      <c r="BG35" s="28"/>
+      <c r="BH35" s="28"/>
+      <c r="BI35" s="28"/>
+      <c r="BJ35" s="28"/>
+      <c r="BK35" s="28"/>
+      <c r="BL35" s="28"/>
+      <c r="BM35" s="28"/>
+      <c r="BN35" s="28"/>
+      <c r="BO35" s="28"/>
+      <c r="BP35" s="28"/>
+      <c r="BQ35" s="28"/>
+      <c r="BR35" s="28"/>
+      <c r="BS35" s="29"/>
       <c r="BT35" s="6"/>
       <c r="BU35" s="7"/>
       <c r="BV35" s="8"/>
@@ -3781,25 +3869,25 @@
       <c r="AX36" s="7"/>
       <c r="AY36" s="7"/>
       <c r="AZ36" s="8"/>
-      <c r="BA36" s="31"/>
-      <c r="BB36" s="32"/>
-      <c r="BC36" s="32"/>
-      <c r="BD36" s="32"/>
-      <c r="BE36" s="32"/>
-      <c r="BF36" s="32"/>
-      <c r="BG36" s="32"/>
-      <c r="BH36" s="32"/>
-      <c r="BI36" s="32"/>
-      <c r="BJ36" s="32"/>
-      <c r="BK36" s="32"/>
-      <c r="BL36" s="32"/>
-      <c r="BM36" s="32"/>
-      <c r="BN36" s="32"/>
-      <c r="BO36" s="32"/>
-      <c r="BP36" s="32"/>
-      <c r="BQ36" s="32"/>
-      <c r="BR36" s="32"/>
-      <c r="BS36" s="33"/>
+      <c r="BA36" s="27"/>
+      <c r="BB36" s="28"/>
+      <c r="BC36" s="28"/>
+      <c r="BD36" s="28"/>
+      <c r="BE36" s="28"/>
+      <c r="BF36" s="28"/>
+      <c r="BG36" s="28"/>
+      <c r="BH36" s="28"/>
+      <c r="BI36" s="28"/>
+      <c r="BJ36" s="28"/>
+      <c r="BK36" s="28"/>
+      <c r="BL36" s="28"/>
+      <c r="BM36" s="28"/>
+      <c r="BN36" s="28"/>
+      <c r="BO36" s="28"/>
+      <c r="BP36" s="28"/>
+      <c r="BQ36" s="28"/>
+      <c r="BR36" s="28"/>
+      <c r="BS36" s="29"/>
       <c r="BT36" s="6"/>
       <c r="BU36" s="7"/>
       <c r="BV36" s="8"/>
@@ -3857,25 +3945,25 @@
       <c r="AX37" s="7"/>
       <c r="AY37" s="7"/>
       <c r="AZ37" s="8"/>
-      <c r="BA37" s="31"/>
-      <c r="BB37" s="32"/>
-      <c r="BC37" s="32"/>
-      <c r="BD37" s="32"/>
-      <c r="BE37" s="32"/>
-      <c r="BF37" s="32"/>
-      <c r="BG37" s="32"/>
-      <c r="BH37" s="32"/>
-      <c r="BI37" s="32"/>
-      <c r="BJ37" s="32"/>
-      <c r="BK37" s="32"/>
-      <c r="BL37" s="32"/>
-      <c r="BM37" s="32"/>
-      <c r="BN37" s="32"/>
-      <c r="BO37" s="32"/>
-      <c r="BP37" s="32"/>
-      <c r="BQ37" s="32"/>
-      <c r="BR37" s="32"/>
-      <c r="BS37" s="33"/>
+      <c r="BA37" s="27"/>
+      <c r="BB37" s="28"/>
+      <c r="BC37" s="28"/>
+      <c r="BD37" s="28"/>
+      <c r="BE37" s="28"/>
+      <c r="BF37" s="28"/>
+      <c r="BG37" s="28"/>
+      <c r="BH37" s="28"/>
+      <c r="BI37" s="28"/>
+      <c r="BJ37" s="28"/>
+      <c r="BK37" s="28"/>
+      <c r="BL37" s="28"/>
+      <c r="BM37" s="28"/>
+      <c r="BN37" s="28"/>
+      <c r="BO37" s="28"/>
+      <c r="BP37" s="28"/>
+      <c r="BQ37" s="28"/>
+      <c r="BR37" s="28"/>
+      <c r="BS37" s="29"/>
       <c r="BT37" s="6"/>
       <c r="BU37" s="7"/>
       <c r="BV37" s="8"/>
@@ -3933,25 +4021,25 @@
       <c r="AX38" s="7"/>
       <c r="AY38" s="7"/>
       <c r="AZ38" s="8"/>
-      <c r="BA38" s="31"/>
-      <c r="BB38" s="32"/>
-      <c r="BC38" s="32"/>
-      <c r="BD38" s="32"/>
-      <c r="BE38" s="32"/>
-      <c r="BF38" s="32"/>
-      <c r="BG38" s="32"/>
-      <c r="BH38" s="32"/>
-      <c r="BI38" s="32"/>
-      <c r="BJ38" s="32"/>
-      <c r="BK38" s="32"/>
-      <c r="BL38" s="32"/>
-      <c r="BM38" s="32"/>
-      <c r="BN38" s="32"/>
-      <c r="BO38" s="32"/>
-      <c r="BP38" s="32"/>
-      <c r="BQ38" s="32"/>
-      <c r="BR38" s="32"/>
-      <c r="BS38" s="33"/>
+      <c r="BA38" s="27"/>
+      <c r="BB38" s="28"/>
+      <c r="BC38" s="28"/>
+      <c r="BD38" s="28"/>
+      <c r="BE38" s="28"/>
+      <c r="BF38" s="28"/>
+      <c r="BG38" s="28"/>
+      <c r="BH38" s="28"/>
+      <c r="BI38" s="28"/>
+      <c r="BJ38" s="28"/>
+      <c r="BK38" s="28"/>
+      <c r="BL38" s="28"/>
+      <c r="BM38" s="28"/>
+      <c r="BN38" s="28"/>
+      <c r="BO38" s="28"/>
+      <c r="BP38" s="28"/>
+      <c r="BQ38" s="28"/>
+      <c r="BR38" s="28"/>
+      <c r="BS38" s="29"/>
       <c r="BT38" s="6"/>
       <c r="BU38" s="7"/>
       <c r="BV38" s="8"/>
@@ -4009,25 +4097,25 @@
       <c r="AX39" s="7"/>
       <c r="AY39" s="7"/>
       <c r="AZ39" s="8"/>
-      <c r="BA39" s="31"/>
-      <c r="BB39" s="32"/>
-      <c r="BC39" s="32"/>
-      <c r="BD39" s="32"/>
-      <c r="BE39" s="32"/>
-      <c r="BF39" s="32"/>
-      <c r="BG39" s="32"/>
-      <c r="BH39" s="32"/>
-      <c r="BI39" s="32"/>
-      <c r="BJ39" s="32"/>
-      <c r="BK39" s="32"/>
-      <c r="BL39" s="32"/>
-      <c r="BM39" s="32"/>
-      <c r="BN39" s="32"/>
-      <c r="BO39" s="32"/>
-      <c r="BP39" s="32"/>
-      <c r="BQ39" s="32"/>
-      <c r="BR39" s="32"/>
-      <c r="BS39" s="33"/>
+      <c r="BA39" s="27"/>
+      <c r="BB39" s="28"/>
+      <c r="BC39" s="28"/>
+      <c r="BD39" s="28"/>
+      <c r="BE39" s="28"/>
+      <c r="BF39" s="28"/>
+      <c r="BG39" s="28"/>
+      <c r="BH39" s="28"/>
+      <c r="BI39" s="28"/>
+      <c r="BJ39" s="28"/>
+      <c r="BK39" s="28"/>
+      <c r="BL39" s="28"/>
+      <c r="BM39" s="28"/>
+      <c r="BN39" s="28"/>
+      <c r="BO39" s="28"/>
+      <c r="BP39" s="28"/>
+      <c r="BQ39" s="28"/>
+      <c r="BR39" s="28"/>
+      <c r="BS39" s="29"/>
       <c r="BT39" s="6"/>
       <c r="BU39" s="7"/>
       <c r="BV39" s="8"/>
@@ -4085,25 +4173,25 @@
       <c r="AX40" s="7"/>
       <c r="AY40" s="7"/>
       <c r="AZ40" s="8"/>
-      <c r="BA40" s="31"/>
-      <c r="BB40" s="32"/>
-      <c r="BC40" s="32"/>
-      <c r="BD40" s="32"/>
-      <c r="BE40" s="32"/>
-      <c r="BF40" s="32"/>
-      <c r="BG40" s="32"/>
-      <c r="BH40" s="32"/>
-      <c r="BI40" s="32"/>
-      <c r="BJ40" s="32"/>
-      <c r="BK40" s="32"/>
-      <c r="BL40" s="32"/>
-      <c r="BM40" s="32"/>
-      <c r="BN40" s="32"/>
-      <c r="BO40" s="32"/>
-      <c r="BP40" s="32"/>
-      <c r="BQ40" s="32"/>
-      <c r="BR40" s="32"/>
-      <c r="BS40" s="33"/>
+      <c r="BA40" s="27"/>
+      <c r="BB40" s="28"/>
+      <c r="BC40" s="28"/>
+      <c r="BD40" s="28"/>
+      <c r="BE40" s="28"/>
+      <c r="BF40" s="28"/>
+      <c r="BG40" s="28"/>
+      <c r="BH40" s="28"/>
+      <c r="BI40" s="28"/>
+      <c r="BJ40" s="28"/>
+      <c r="BK40" s="28"/>
+      <c r="BL40" s="28"/>
+      <c r="BM40" s="28"/>
+      <c r="BN40" s="28"/>
+      <c r="BO40" s="28"/>
+      <c r="BP40" s="28"/>
+      <c r="BQ40" s="28"/>
+      <c r="BR40" s="28"/>
+      <c r="BS40" s="29"/>
       <c r="BT40" s="6"/>
       <c r="BU40" s="7"/>
       <c r="BV40" s="8"/>
@@ -4161,25 +4249,25 @@
       <c r="AX41" s="7"/>
       <c r="AY41" s="7"/>
       <c r="AZ41" s="8"/>
-      <c r="BA41" s="31"/>
-      <c r="BB41" s="32"/>
-      <c r="BC41" s="32"/>
-      <c r="BD41" s="32"/>
-      <c r="BE41" s="32"/>
-      <c r="BF41" s="32"/>
-      <c r="BG41" s="32"/>
-      <c r="BH41" s="32"/>
-      <c r="BI41" s="32"/>
-      <c r="BJ41" s="32"/>
-      <c r="BK41" s="32"/>
-      <c r="BL41" s="32"/>
-      <c r="BM41" s="32"/>
-      <c r="BN41" s="32"/>
-      <c r="BO41" s="32"/>
-      <c r="BP41" s="32"/>
-      <c r="BQ41" s="32"/>
-      <c r="BR41" s="32"/>
-      <c r="BS41" s="33"/>
+      <c r="BA41" s="27"/>
+      <c r="BB41" s="28"/>
+      <c r="BC41" s="28"/>
+      <c r="BD41" s="28"/>
+      <c r="BE41" s="28"/>
+      <c r="BF41" s="28"/>
+      <c r="BG41" s="28"/>
+      <c r="BH41" s="28"/>
+      <c r="BI41" s="28"/>
+      <c r="BJ41" s="28"/>
+      <c r="BK41" s="28"/>
+      <c r="BL41" s="28"/>
+      <c r="BM41" s="28"/>
+      <c r="BN41" s="28"/>
+      <c r="BO41" s="28"/>
+      <c r="BP41" s="28"/>
+      <c r="BQ41" s="28"/>
+      <c r="BR41" s="28"/>
+      <c r="BS41" s="29"/>
       <c r="BT41" s="6"/>
       <c r="BU41" s="7"/>
       <c r="BV41" s="8"/>
@@ -4237,25 +4325,25 @@
       <c r="AX42" s="7"/>
       <c r="AY42" s="7"/>
       <c r="AZ42" s="8"/>
-      <c r="BA42" s="31"/>
-      <c r="BB42" s="32"/>
-      <c r="BC42" s="32"/>
-      <c r="BD42" s="32"/>
-      <c r="BE42" s="32"/>
-      <c r="BF42" s="32"/>
-      <c r="BG42" s="32"/>
-      <c r="BH42" s="32"/>
-      <c r="BI42" s="32"/>
-      <c r="BJ42" s="32"/>
-      <c r="BK42" s="32"/>
-      <c r="BL42" s="32"/>
-      <c r="BM42" s="32"/>
-      <c r="BN42" s="32"/>
-      <c r="BO42" s="32"/>
-      <c r="BP42" s="32"/>
-      <c r="BQ42" s="32"/>
-      <c r="BR42" s="32"/>
-      <c r="BS42" s="33"/>
+      <c r="BA42" s="27"/>
+      <c r="BB42" s="28"/>
+      <c r="BC42" s="28"/>
+      <c r="BD42" s="28"/>
+      <c r="BE42" s="28"/>
+      <c r="BF42" s="28"/>
+      <c r="BG42" s="28"/>
+      <c r="BH42" s="28"/>
+      <c r="BI42" s="28"/>
+      <c r="BJ42" s="28"/>
+      <c r="BK42" s="28"/>
+      <c r="BL42" s="28"/>
+      <c r="BM42" s="28"/>
+      <c r="BN42" s="28"/>
+      <c r="BO42" s="28"/>
+      <c r="BP42" s="28"/>
+      <c r="BQ42" s="28"/>
+      <c r="BR42" s="28"/>
+      <c r="BS42" s="29"/>
       <c r="BT42" s="6"/>
       <c r="BU42" s="7"/>
       <c r="BV42" s="8"/>
@@ -4313,25 +4401,25 @@
       <c r="AX43" s="7"/>
       <c r="AY43" s="7"/>
       <c r="AZ43" s="8"/>
-      <c r="BA43" s="31"/>
-      <c r="BB43" s="32"/>
-      <c r="BC43" s="32"/>
-      <c r="BD43" s="32"/>
-      <c r="BE43" s="32"/>
-      <c r="BF43" s="32"/>
-      <c r="BG43" s="32"/>
-      <c r="BH43" s="32"/>
-      <c r="BI43" s="32"/>
-      <c r="BJ43" s="32"/>
-      <c r="BK43" s="32"/>
-      <c r="BL43" s="32"/>
-      <c r="BM43" s="32"/>
-      <c r="BN43" s="32"/>
-      <c r="BO43" s="32"/>
-      <c r="BP43" s="32"/>
-      <c r="BQ43" s="32"/>
-      <c r="BR43" s="32"/>
-      <c r="BS43" s="33"/>
+      <c r="BA43" s="27"/>
+      <c r="BB43" s="28"/>
+      <c r="BC43" s="28"/>
+      <c r="BD43" s="28"/>
+      <c r="BE43" s="28"/>
+      <c r="BF43" s="28"/>
+      <c r="BG43" s="28"/>
+      <c r="BH43" s="28"/>
+      <c r="BI43" s="28"/>
+      <c r="BJ43" s="28"/>
+      <c r="BK43" s="28"/>
+      <c r="BL43" s="28"/>
+      <c r="BM43" s="28"/>
+      <c r="BN43" s="28"/>
+      <c r="BO43" s="28"/>
+      <c r="BP43" s="28"/>
+      <c r="BQ43" s="28"/>
+      <c r="BR43" s="28"/>
+      <c r="BS43" s="29"/>
       <c r="BT43" s="6"/>
       <c r="BU43" s="7"/>
       <c r="BV43" s="8"/>
@@ -4389,25 +4477,25 @@
       <c r="AX44" s="7"/>
       <c r="AY44" s="7"/>
       <c r="AZ44" s="8"/>
-      <c r="BA44" s="31"/>
-      <c r="BB44" s="32"/>
-      <c r="BC44" s="32"/>
-      <c r="BD44" s="32"/>
-      <c r="BE44" s="32"/>
-      <c r="BF44" s="32"/>
-      <c r="BG44" s="32"/>
-      <c r="BH44" s="32"/>
-      <c r="BI44" s="32"/>
-      <c r="BJ44" s="32"/>
-      <c r="BK44" s="32"/>
-      <c r="BL44" s="32"/>
-      <c r="BM44" s="32"/>
-      <c r="BN44" s="32"/>
-      <c r="BO44" s="32"/>
-      <c r="BP44" s="32"/>
-      <c r="BQ44" s="32"/>
-      <c r="BR44" s="32"/>
-      <c r="BS44" s="33"/>
+      <c r="BA44" s="27"/>
+      <c r="BB44" s="28"/>
+      <c r="BC44" s="28"/>
+      <c r="BD44" s="28"/>
+      <c r="BE44" s="28"/>
+      <c r="BF44" s="28"/>
+      <c r="BG44" s="28"/>
+      <c r="BH44" s="28"/>
+      <c r="BI44" s="28"/>
+      <c r="BJ44" s="28"/>
+      <c r="BK44" s="28"/>
+      <c r="BL44" s="28"/>
+      <c r="BM44" s="28"/>
+      <c r="BN44" s="28"/>
+      <c r="BO44" s="28"/>
+      <c r="BP44" s="28"/>
+      <c r="BQ44" s="28"/>
+      <c r="BR44" s="28"/>
+      <c r="BS44" s="29"/>
       <c r="BT44" s="6"/>
       <c r="BU44" s="7"/>
       <c r="BV44" s="8"/>
@@ -4465,25 +4553,25 @@
       <c r="AX45" s="7"/>
       <c r="AY45" s="7"/>
       <c r="AZ45" s="8"/>
-      <c r="BA45" s="31"/>
-      <c r="BB45" s="32"/>
-      <c r="BC45" s="32"/>
-      <c r="BD45" s="32"/>
-      <c r="BE45" s="32"/>
-      <c r="BF45" s="32"/>
-      <c r="BG45" s="32"/>
-      <c r="BH45" s="32"/>
-      <c r="BI45" s="32"/>
-      <c r="BJ45" s="32"/>
-      <c r="BK45" s="32"/>
-      <c r="BL45" s="32"/>
-      <c r="BM45" s="32"/>
-      <c r="BN45" s="32"/>
-      <c r="BO45" s="32"/>
-      <c r="BP45" s="32"/>
-      <c r="BQ45" s="32"/>
-      <c r="BR45" s="32"/>
-      <c r="BS45" s="33"/>
+      <c r="BA45" s="27"/>
+      <c r="BB45" s="28"/>
+      <c r="BC45" s="28"/>
+      <c r="BD45" s="28"/>
+      <c r="BE45" s="28"/>
+      <c r="BF45" s="28"/>
+      <c r="BG45" s="28"/>
+      <c r="BH45" s="28"/>
+      <c r="BI45" s="28"/>
+      <c r="BJ45" s="28"/>
+      <c r="BK45" s="28"/>
+      <c r="BL45" s="28"/>
+      <c r="BM45" s="28"/>
+      <c r="BN45" s="28"/>
+      <c r="BO45" s="28"/>
+      <c r="BP45" s="28"/>
+      <c r="BQ45" s="28"/>
+      <c r="BR45" s="28"/>
+      <c r="BS45" s="29"/>
       <c r="BT45" s="6"/>
       <c r="BU45" s="7"/>
       <c r="BV45" s="8"/>
@@ -4541,25 +4629,25 @@
       <c r="AX46" s="7"/>
       <c r="AY46" s="7"/>
       <c r="AZ46" s="8"/>
-      <c r="BA46" s="31"/>
-      <c r="BB46" s="32"/>
-      <c r="BC46" s="32"/>
-      <c r="BD46" s="32"/>
-      <c r="BE46" s="32"/>
-      <c r="BF46" s="32"/>
-      <c r="BG46" s="32"/>
-      <c r="BH46" s="32"/>
-      <c r="BI46" s="32"/>
-      <c r="BJ46" s="32"/>
-      <c r="BK46" s="32"/>
-      <c r="BL46" s="32"/>
-      <c r="BM46" s="32"/>
-      <c r="BN46" s="32"/>
-      <c r="BO46" s="32"/>
-      <c r="BP46" s="32"/>
-      <c r="BQ46" s="32"/>
-      <c r="BR46" s="32"/>
-      <c r="BS46" s="33"/>
+      <c r="BA46" s="27"/>
+      <c r="BB46" s="28"/>
+      <c r="BC46" s="28"/>
+      <c r="BD46" s="28"/>
+      <c r="BE46" s="28"/>
+      <c r="BF46" s="28"/>
+      <c r="BG46" s="28"/>
+      <c r="BH46" s="28"/>
+      <c r="BI46" s="28"/>
+      <c r="BJ46" s="28"/>
+      <c r="BK46" s="28"/>
+      <c r="BL46" s="28"/>
+      <c r="BM46" s="28"/>
+      <c r="BN46" s="28"/>
+      <c r="BO46" s="28"/>
+      <c r="BP46" s="28"/>
+      <c r="BQ46" s="28"/>
+      <c r="BR46" s="28"/>
+      <c r="BS46" s="29"/>
       <c r="BT46" s="6"/>
       <c r="BU46" s="7"/>
       <c r="BV46" s="8"/>
@@ -4617,25 +4705,25 @@
       <c r="AX47" s="7"/>
       <c r="AY47" s="7"/>
       <c r="AZ47" s="8"/>
-      <c r="BA47" s="31"/>
-      <c r="BB47" s="32"/>
-      <c r="BC47" s="32"/>
-      <c r="BD47" s="32"/>
-      <c r="BE47" s="32"/>
-      <c r="BF47" s="32"/>
-      <c r="BG47" s="32"/>
-      <c r="BH47" s="32"/>
-      <c r="BI47" s="32"/>
-      <c r="BJ47" s="32"/>
-      <c r="BK47" s="32"/>
-      <c r="BL47" s="32"/>
-      <c r="BM47" s="32"/>
-      <c r="BN47" s="32"/>
-      <c r="BO47" s="32"/>
-      <c r="BP47" s="32"/>
-      <c r="BQ47" s="32"/>
-      <c r="BR47" s="32"/>
-      <c r="BS47" s="33"/>
+      <c r="BA47" s="27"/>
+      <c r="BB47" s="28"/>
+      <c r="BC47" s="28"/>
+      <c r="BD47" s="28"/>
+      <c r="BE47" s="28"/>
+      <c r="BF47" s="28"/>
+      <c r="BG47" s="28"/>
+      <c r="BH47" s="28"/>
+      <c r="BI47" s="28"/>
+      <c r="BJ47" s="28"/>
+      <c r="BK47" s="28"/>
+      <c r="BL47" s="28"/>
+      <c r="BM47" s="28"/>
+      <c r="BN47" s="28"/>
+      <c r="BO47" s="28"/>
+      <c r="BP47" s="28"/>
+      <c r="BQ47" s="28"/>
+      <c r="BR47" s="28"/>
+      <c r="BS47" s="29"/>
       <c r="BT47" s="6"/>
       <c r="BU47" s="7"/>
       <c r="BV47" s="8"/>
@@ -4693,25 +4781,25 @@
       <c r="AX48" s="7"/>
       <c r="AY48" s="7"/>
       <c r="AZ48" s="8"/>
-      <c r="BA48" s="31"/>
-      <c r="BB48" s="32"/>
-      <c r="BC48" s="32"/>
-      <c r="BD48" s="32"/>
-      <c r="BE48" s="32"/>
-      <c r="BF48" s="32"/>
-      <c r="BG48" s="32"/>
-      <c r="BH48" s="32"/>
-      <c r="BI48" s="32"/>
-      <c r="BJ48" s="32"/>
-      <c r="BK48" s="32"/>
-      <c r="BL48" s="32"/>
-      <c r="BM48" s="32"/>
-      <c r="BN48" s="32"/>
-      <c r="BO48" s="32"/>
-      <c r="BP48" s="32"/>
-      <c r="BQ48" s="32"/>
-      <c r="BR48" s="32"/>
-      <c r="BS48" s="33"/>
+      <c r="BA48" s="27"/>
+      <c r="BB48" s="28"/>
+      <c r="BC48" s="28"/>
+      <c r="BD48" s="28"/>
+      <c r="BE48" s="28"/>
+      <c r="BF48" s="28"/>
+      <c r="BG48" s="28"/>
+      <c r="BH48" s="28"/>
+      <c r="BI48" s="28"/>
+      <c r="BJ48" s="28"/>
+      <c r="BK48" s="28"/>
+      <c r="BL48" s="28"/>
+      <c r="BM48" s="28"/>
+      <c r="BN48" s="28"/>
+      <c r="BO48" s="28"/>
+      <c r="BP48" s="28"/>
+      <c r="BQ48" s="28"/>
+      <c r="BR48" s="28"/>
+      <c r="BS48" s="29"/>
       <c r="BT48" s="6"/>
       <c r="BU48" s="7"/>
       <c r="BV48" s="8"/>
@@ -4769,25 +4857,25 @@
       <c r="AX49" s="7"/>
       <c r="AY49" s="7"/>
       <c r="AZ49" s="8"/>
-      <c r="BA49" s="31"/>
-      <c r="BB49" s="32"/>
-      <c r="BC49" s="32"/>
-      <c r="BD49" s="32"/>
-      <c r="BE49" s="32"/>
-      <c r="BF49" s="32"/>
-      <c r="BG49" s="32"/>
-      <c r="BH49" s="32"/>
-      <c r="BI49" s="32"/>
-      <c r="BJ49" s="32"/>
-      <c r="BK49" s="32"/>
-      <c r="BL49" s="32"/>
-      <c r="BM49" s="32"/>
-      <c r="BN49" s="32"/>
-      <c r="BO49" s="32"/>
-      <c r="BP49" s="32"/>
-      <c r="BQ49" s="32"/>
-      <c r="BR49" s="32"/>
-      <c r="BS49" s="33"/>
+      <c r="BA49" s="27"/>
+      <c r="BB49" s="28"/>
+      <c r="BC49" s="28"/>
+      <c r="BD49" s="28"/>
+      <c r="BE49" s="28"/>
+      <c r="BF49" s="28"/>
+      <c r="BG49" s="28"/>
+      <c r="BH49" s="28"/>
+      <c r="BI49" s="28"/>
+      <c r="BJ49" s="28"/>
+      <c r="BK49" s="28"/>
+      <c r="BL49" s="28"/>
+      <c r="BM49" s="28"/>
+      <c r="BN49" s="28"/>
+      <c r="BO49" s="28"/>
+      <c r="BP49" s="28"/>
+      <c r="BQ49" s="28"/>
+      <c r="BR49" s="28"/>
+      <c r="BS49" s="29"/>
       <c r="BT49" s="6"/>
       <c r="BU49" s="7"/>
       <c r="BV49" s="8"/>
@@ -4845,25 +4933,25 @@
       <c r="AX50" s="7"/>
       <c r="AY50" s="7"/>
       <c r="AZ50" s="8"/>
-      <c r="BA50" s="31"/>
-      <c r="BB50" s="32"/>
-      <c r="BC50" s="32"/>
-      <c r="BD50" s="32"/>
-      <c r="BE50" s="32"/>
-      <c r="BF50" s="32"/>
-      <c r="BG50" s="32"/>
-      <c r="BH50" s="32"/>
-      <c r="BI50" s="32"/>
-      <c r="BJ50" s="32"/>
-      <c r="BK50" s="32"/>
-      <c r="BL50" s="32"/>
-      <c r="BM50" s="32"/>
-      <c r="BN50" s="32"/>
-      <c r="BO50" s="32"/>
-      <c r="BP50" s="32"/>
-      <c r="BQ50" s="32"/>
-      <c r="BR50" s="32"/>
-      <c r="BS50" s="33"/>
+      <c r="BA50" s="27"/>
+      <c r="BB50" s="28"/>
+      <c r="BC50" s="28"/>
+      <c r="BD50" s="28"/>
+      <c r="BE50" s="28"/>
+      <c r="BF50" s="28"/>
+      <c r="BG50" s="28"/>
+      <c r="BH50" s="28"/>
+      <c r="BI50" s="28"/>
+      <c r="BJ50" s="28"/>
+      <c r="BK50" s="28"/>
+      <c r="BL50" s="28"/>
+      <c r="BM50" s="28"/>
+      <c r="BN50" s="28"/>
+      <c r="BO50" s="28"/>
+      <c r="BP50" s="28"/>
+      <c r="BQ50" s="28"/>
+      <c r="BR50" s="28"/>
+      <c r="BS50" s="29"/>
       <c r="BT50" s="6"/>
       <c r="BU50" s="7"/>
       <c r="BV50" s="8"/>
@@ -4921,25 +5009,25 @@
       <c r="AX51" s="7"/>
       <c r="AY51" s="7"/>
       <c r="AZ51" s="8"/>
-      <c r="BA51" s="31"/>
-      <c r="BB51" s="32"/>
-      <c r="BC51" s="32"/>
-      <c r="BD51" s="32"/>
-      <c r="BE51" s="32"/>
-      <c r="BF51" s="32"/>
-      <c r="BG51" s="32"/>
-      <c r="BH51" s="32"/>
-      <c r="BI51" s="32"/>
-      <c r="BJ51" s="32"/>
-      <c r="BK51" s="32"/>
-      <c r="BL51" s="32"/>
-      <c r="BM51" s="32"/>
-      <c r="BN51" s="32"/>
-      <c r="BO51" s="32"/>
-      <c r="BP51" s="32"/>
-      <c r="BQ51" s="32"/>
-      <c r="BR51" s="32"/>
-      <c r="BS51" s="33"/>
+      <c r="BA51" s="27"/>
+      <c r="BB51" s="28"/>
+      <c r="BC51" s="28"/>
+      <c r="BD51" s="28"/>
+      <c r="BE51" s="28"/>
+      <c r="BF51" s="28"/>
+      <c r="BG51" s="28"/>
+      <c r="BH51" s="28"/>
+      <c r="BI51" s="28"/>
+      <c r="BJ51" s="28"/>
+      <c r="BK51" s="28"/>
+      <c r="BL51" s="28"/>
+      <c r="BM51" s="28"/>
+      <c r="BN51" s="28"/>
+      <c r="BO51" s="28"/>
+      <c r="BP51" s="28"/>
+      <c r="BQ51" s="28"/>
+      <c r="BR51" s="28"/>
+      <c r="BS51" s="29"/>
       <c r="BT51" s="6"/>
       <c r="BU51" s="7"/>
       <c r="BV51" s="8"/>
@@ -4997,25 +5085,25 @@
       <c r="AX52" s="7"/>
       <c r="AY52" s="7"/>
       <c r="AZ52" s="8"/>
-      <c r="BA52" s="31"/>
-      <c r="BB52" s="32"/>
-      <c r="BC52" s="32"/>
-      <c r="BD52" s="32"/>
-      <c r="BE52" s="32"/>
-      <c r="BF52" s="32"/>
-      <c r="BG52" s="32"/>
-      <c r="BH52" s="32"/>
-      <c r="BI52" s="32"/>
-      <c r="BJ52" s="32"/>
-      <c r="BK52" s="32"/>
-      <c r="BL52" s="32"/>
-      <c r="BM52" s="32"/>
-      <c r="BN52" s="32"/>
-      <c r="BO52" s="32"/>
-      <c r="BP52" s="32"/>
-      <c r="BQ52" s="32"/>
-      <c r="BR52" s="32"/>
-      <c r="BS52" s="33"/>
+      <c r="BA52" s="27"/>
+      <c r="BB52" s="28"/>
+      <c r="BC52" s="28"/>
+      <c r="BD52" s="28"/>
+      <c r="BE52" s="28"/>
+      <c r="BF52" s="28"/>
+      <c r="BG52" s="28"/>
+      <c r="BH52" s="28"/>
+      <c r="BI52" s="28"/>
+      <c r="BJ52" s="28"/>
+      <c r="BK52" s="28"/>
+      <c r="BL52" s="28"/>
+      <c r="BM52" s="28"/>
+      <c r="BN52" s="28"/>
+      <c r="BO52" s="28"/>
+      <c r="BP52" s="28"/>
+      <c r="BQ52" s="28"/>
+      <c r="BR52" s="28"/>
+      <c r="BS52" s="29"/>
       <c r="BT52" s="6"/>
       <c r="BU52" s="7"/>
       <c r="BV52" s="8"/>
@@ -5073,25 +5161,25 @@
       <c r="AX53" s="7"/>
       <c r="AY53" s="7"/>
       <c r="AZ53" s="8"/>
-      <c r="BA53" s="31"/>
-      <c r="BB53" s="32"/>
-      <c r="BC53" s="32"/>
-      <c r="BD53" s="32"/>
-      <c r="BE53" s="32"/>
-      <c r="BF53" s="32"/>
-      <c r="BG53" s="32"/>
-      <c r="BH53" s="32"/>
-      <c r="BI53" s="32"/>
-      <c r="BJ53" s="32"/>
-      <c r="BK53" s="32"/>
-      <c r="BL53" s="32"/>
-      <c r="BM53" s="32"/>
-      <c r="BN53" s="32"/>
-      <c r="BO53" s="32"/>
-      <c r="BP53" s="32"/>
-      <c r="BQ53" s="32"/>
-      <c r="BR53" s="32"/>
-      <c r="BS53" s="33"/>
+      <c r="BA53" s="27"/>
+      <c r="BB53" s="28"/>
+      <c r="BC53" s="28"/>
+      <c r="BD53" s="28"/>
+      <c r="BE53" s="28"/>
+      <c r="BF53" s="28"/>
+      <c r="BG53" s="28"/>
+      <c r="BH53" s="28"/>
+      <c r="BI53" s="28"/>
+      <c r="BJ53" s="28"/>
+      <c r="BK53" s="28"/>
+      <c r="BL53" s="28"/>
+      <c r="BM53" s="28"/>
+      <c r="BN53" s="28"/>
+      <c r="BO53" s="28"/>
+      <c r="BP53" s="28"/>
+      <c r="BQ53" s="28"/>
+      <c r="BR53" s="28"/>
+      <c r="BS53" s="29"/>
       <c r="BT53" s="6"/>
       <c r="BU53" s="7"/>
       <c r="BV53" s="8"/>
@@ -5149,25 +5237,25 @@
       <c r="AX54" s="7"/>
       <c r="AY54" s="7"/>
       <c r="AZ54" s="8"/>
-      <c r="BA54" s="31"/>
-      <c r="BB54" s="32"/>
-      <c r="BC54" s="32"/>
-      <c r="BD54" s="32"/>
-      <c r="BE54" s="32"/>
-      <c r="BF54" s="32"/>
-      <c r="BG54" s="32"/>
-      <c r="BH54" s="32"/>
-      <c r="BI54" s="32"/>
-      <c r="BJ54" s="32"/>
-      <c r="BK54" s="32"/>
-      <c r="BL54" s="32"/>
-      <c r="BM54" s="32"/>
-      <c r="BN54" s="32"/>
-      <c r="BO54" s="32"/>
-      <c r="BP54" s="32"/>
-      <c r="BQ54" s="32"/>
-      <c r="BR54" s="32"/>
-      <c r="BS54" s="33"/>
+      <c r="BA54" s="27"/>
+      <c r="BB54" s="28"/>
+      <c r="BC54" s="28"/>
+      <c r="BD54" s="28"/>
+      <c r="BE54" s="28"/>
+      <c r="BF54" s="28"/>
+      <c r="BG54" s="28"/>
+      <c r="BH54" s="28"/>
+      <c r="BI54" s="28"/>
+      <c r="BJ54" s="28"/>
+      <c r="BK54" s="28"/>
+      <c r="BL54" s="28"/>
+      <c r="BM54" s="28"/>
+      <c r="BN54" s="28"/>
+      <c r="BO54" s="28"/>
+      <c r="BP54" s="28"/>
+      <c r="BQ54" s="28"/>
+      <c r="BR54" s="28"/>
+      <c r="BS54" s="29"/>
       <c r="BT54" s="6"/>
       <c r="BU54" s="7"/>
       <c r="BV54" s="8"/>
@@ -5225,25 +5313,25 @@
       <c r="AX55" s="7"/>
       <c r="AY55" s="7"/>
       <c r="AZ55" s="8"/>
-      <c r="BA55" s="31"/>
-      <c r="BB55" s="32"/>
-      <c r="BC55" s="32"/>
-      <c r="BD55" s="32"/>
-      <c r="BE55" s="32"/>
-      <c r="BF55" s="32"/>
-      <c r="BG55" s="32"/>
-      <c r="BH55" s="32"/>
-      <c r="BI55" s="32"/>
-      <c r="BJ55" s="32"/>
-      <c r="BK55" s="32"/>
-      <c r="BL55" s="32"/>
-      <c r="BM55" s="32"/>
-      <c r="BN55" s="32"/>
-      <c r="BO55" s="32"/>
-      <c r="BP55" s="32"/>
-      <c r="BQ55" s="32"/>
-      <c r="BR55" s="32"/>
-      <c r="BS55" s="33"/>
+      <c r="BA55" s="27"/>
+      <c r="BB55" s="28"/>
+      <c r="BC55" s="28"/>
+      <c r="BD55" s="28"/>
+      <c r="BE55" s="28"/>
+      <c r="BF55" s="28"/>
+      <c r="BG55" s="28"/>
+      <c r="BH55" s="28"/>
+      <c r="BI55" s="28"/>
+      <c r="BJ55" s="28"/>
+      <c r="BK55" s="28"/>
+      <c r="BL55" s="28"/>
+      <c r="BM55" s="28"/>
+      <c r="BN55" s="28"/>
+      <c r="BO55" s="28"/>
+      <c r="BP55" s="28"/>
+      <c r="BQ55" s="28"/>
+      <c r="BR55" s="28"/>
+      <c r="BS55" s="29"/>
       <c r="BT55" s="6"/>
       <c r="BU55" s="7"/>
       <c r="BV55" s="8"/>
@@ -5301,25 +5389,25 @@
       <c r="AX56" s="7"/>
       <c r="AY56" s="7"/>
       <c r="AZ56" s="8"/>
-      <c r="BA56" s="31"/>
-      <c r="BB56" s="32"/>
-      <c r="BC56" s="32"/>
-      <c r="BD56" s="32"/>
-      <c r="BE56" s="32"/>
-      <c r="BF56" s="32"/>
-      <c r="BG56" s="32"/>
-      <c r="BH56" s="32"/>
-      <c r="BI56" s="32"/>
-      <c r="BJ56" s="32"/>
-      <c r="BK56" s="32"/>
-      <c r="BL56" s="32"/>
-      <c r="BM56" s="32"/>
-      <c r="BN56" s="32"/>
-      <c r="BO56" s="32"/>
-      <c r="BP56" s="32"/>
-      <c r="BQ56" s="32"/>
-      <c r="BR56" s="32"/>
-      <c r="BS56" s="33"/>
+      <c r="BA56" s="27"/>
+      <c r="BB56" s="28"/>
+      <c r="BC56" s="28"/>
+      <c r="BD56" s="28"/>
+      <c r="BE56" s="28"/>
+      <c r="BF56" s="28"/>
+      <c r="BG56" s="28"/>
+      <c r="BH56" s="28"/>
+      <c r="BI56" s="28"/>
+      <c r="BJ56" s="28"/>
+      <c r="BK56" s="28"/>
+      <c r="BL56" s="28"/>
+      <c r="BM56" s="28"/>
+      <c r="BN56" s="28"/>
+      <c r="BO56" s="28"/>
+      <c r="BP56" s="28"/>
+      <c r="BQ56" s="28"/>
+      <c r="BR56" s="28"/>
+      <c r="BS56" s="29"/>
       <c r="BT56" s="6"/>
       <c r="BU56" s="7"/>
       <c r="BV56" s="8"/>
@@ -5377,25 +5465,25 @@
       <c r="AX57" s="7"/>
       <c r="AY57" s="7"/>
       <c r="AZ57" s="8"/>
-      <c r="BA57" s="31"/>
-      <c r="BB57" s="32"/>
-      <c r="BC57" s="32"/>
-      <c r="BD57" s="32"/>
-      <c r="BE57" s="32"/>
-      <c r="BF57" s="32"/>
-      <c r="BG57" s="32"/>
-      <c r="BH57" s="32"/>
-      <c r="BI57" s="32"/>
-      <c r="BJ57" s="32"/>
-      <c r="BK57" s="32"/>
-      <c r="BL57" s="32"/>
-      <c r="BM57" s="32"/>
-      <c r="BN57" s="32"/>
-      <c r="BO57" s="32"/>
-      <c r="BP57" s="32"/>
-      <c r="BQ57" s="32"/>
-      <c r="BR57" s="32"/>
-      <c r="BS57" s="33"/>
+      <c r="BA57" s="27"/>
+      <c r="BB57" s="28"/>
+      <c r="BC57" s="28"/>
+      <c r="BD57" s="28"/>
+      <c r="BE57" s="28"/>
+      <c r="BF57" s="28"/>
+      <c r="BG57" s="28"/>
+      <c r="BH57" s="28"/>
+      <c r="BI57" s="28"/>
+      <c r="BJ57" s="28"/>
+      <c r="BK57" s="28"/>
+      <c r="BL57" s="28"/>
+      <c r="BM57" s="28"/>
+      <c r="BN57" s="28"/>
+      <c r="BO57" s="28"/>
+      <c r="BP57" s="28"/>
+      <c r="BQ57" s="28"/>
+      <c r="BR57" s="28"/>
+      <c r="BS57" s="29"/>
       <c r="BT57" s="6"/>
       <c r="BU57" s="7"/>
       <c r="BV57" s="8"/>
@@ -5453,25 +5541,25 @@
       <c r="AX58" s="7"/>
       <c r="AY58" s="7"/>
       <c r="AZ58" s="8"/>
-      <c r="BA58" s="31"/>
-      <c r="BB58" s="32"/>
-      <c r="BC58" s="32"/>
-      <c r="BD58" s="32"/>
-      <c r="BE58" s="32"/>
-      <c r="BF58" s="32"/>
-      <c r="BG58" s="32"/>
-      <c r="BH58" s="32"/>
-      <c r="BI58" s="32"/>
-      <c r="BJ58" s="32"/>
-      <c r="BK58" s="32"/>
-      <c r="BL58" s="32"/>
-      <c r="BM58" s="32"/>
-      <c r="BN58" s="32"/>
-      <c r="BO58" s="32"/>
-      <c r="BP58" s="32"/>
-      <c r="BQ58" s="32"/>
-      <c r="BR58" s="32"/>
-      <c r="BS58" s="33"/>
+      <c r="BA58" s="27"/>
+      <c r="BB58" s="28"/>
+      <c r="BC58" s="28"/>
+      <c r="BD58" s="28"/>
+      <c r="BE58" s="28"/>
+      <c r="BF58" s="28"/>
+      <c r="BG58" s="28"/>
+      <c r="BH58" s="28"/>
+      <c r="BI58" s="28"/>
+      <c r="BJ58" s="28"/>
+      <c r="BK58" s="28"/>
+      <c r="BL58" s="28"/>
+      <c r="BM58" s="28"/>
+      <c r="BN58" s="28"/>
+      <c r="BO58" s="28"/>
+      <c r="BP58" s="28"/>
+      <c r="BQ58" s="28"/>
+      <c r="BR58" s="28"/>
+      <c r="BS58" s="29"/>
       <c r="BT58" s="6"/>
       <c r="BU58" s="7"/>
       <c r="BV58" s="8"/>
@@ -5529,25 +5617,25 @@
       <c r="AX59" s="7"/>
       <c r="AY59" s="7"/>
       <c r="AZ59" s="8"/>
-      <c r="BA59" s="31"/>
-      <c r="BB59" s="32"/>
-      <c r="BC59" s="32"/>
-      <c r="BD59" s="32"/>
-      <c r="BE59" s="32"/>
-      <c r="BF59" s="32"/>
-      <c r="BG59" s="32"/>
-      <c r="BH59" s="32"/>
-      <c r="BI59" s="32"/>
-      <c r="BJ59" s="32"/>
-      <c r="BK59" s="32"/>
-      <c r="BL59" s="32"/>
-      <c r="BM59" s="32"/>
-      <c r="BN59" s="32"/>
-      <c r="BO59" s="32"/>
-      <c r="BP59" s="32"/>
-      <c r="BQ59" s="32"/>
-      <c r="BR59" s="32"/>
-      <c r="BS59" s="33"/>
+      <c r="BA59" s="27"/>
+      <c r="BB59" s="28"/>
+      <c r="BC59" s="28"/>
+      <c r="BD59" s="28"/>
+      <c r="BE59" s="28"/>
+      <c r="BF59" s="28"/>
+      <c r="BG59" s="28"/>
+      <c r="BH59" s="28"/>
+      <c r="BI59" s="28"/>
+      <c r="BJ59" s="28"/>
+      <c r="BK59" s="28"/>
+      <c r="BL59" s="28"/>
+      <c r="BM59" s="28"/>
+      <c r="BN59" s="28"/>
+      <c r="BO59" s="28"/>
+      <c r="BP59" s="28"/>
+      <c r="BQ59" s="28"/>
+      <c r="BR59" s="28"/>
+      <c r="BS59" s="29"/>
       <c r="BT59" s="6"/>
       <c r="BU59" s="7"/>
       <c r="BV59" s="8"/>
@@ -5605,25 +5693,25 @@
       <c r="AX60" s="7"/>
       <c r="AY60" s="7"/>
       <c r="AZ60" s="8"/>
-      <c r="BA60" s="31"/>
-      <c r="BB60" s="32"/>
-      <c r="BC60" s="32"/>
-      <c r="BD60" s="32"/>
-      <c r="BE60" s="32"/>
-      <c r="BF60" s="32"/>
-      <c r="BG60" s="32"/>
-      <c r="BH60" s="32"/>
-      <c r="BI60" s="32"/>
-      <c r="BJ60" s="32"/>
-      <c r="BK60" s="32"/>
-      <c r="BL60" s="32"/>
-      <c r="BM60" s="32"/>
-      <c r="BN60" s="32"/>
-      <c r="BO60" s="32"/>
-      <c r="BP60" s="32"/>
-      <c r="BQ60" s="32"/>
-      <c r="BR60" s="32"/>
-      <c r="BS60" s="33"/>
+      <c r="BA60" s="27"/>
+      <c r="BB60" s="28"/>
+      <c r="BC60" s="28"/>
+      <c r="BD60" s="28"/>
+      <c r="BE60" s="28"/>
+      <c r="BF60" s="28"/>
+      <c r="BG60" s="28"/>
+      <c r="BH60" s="28"/>
+      <c r="BI60" s="28"/>
+      <c r="BJ60" s="28"/>
+      <c r="BK60" s="28"/>
+      <c r="BL60" s="28"/>
+      <c r="BM60" s="28"/>
+      <c r="BN60" s="28"/>
+      <c r="BO60" s="28"/>
+      <c r="BP60" s="28"/>
+      <c r="BQ60" s="28"/>
+      <c r="BR60" s="28"/>
+      <c r="BS60" s="29"/>
       <c r="BT60" s="6"/>
       <c r="BU60" s="7"/>
       <c r="BV60" s="8"/>
@@ -5681,25 +5769,25 @@
       <c r="AX61" s="7"/>
       <c r="AY61" s="7"/>
       <c r="AZ61" s="8"/>
-      <c r="BA61" s="31"/>
-      <c r="BB61" s="32"/>
-      <c r="BC61" s="32"/>
-      <c r="BD61" s="32"/>
-      <c r="BE61" s="32"/>
-      <c r="BF61" s="32"/>
-      <c r="BG61" s="32"/>
-      <c r="BH61" s="32"/>
-      <c r="BI61" s="32"/>
-      <c r="BJ61" s="32"/>
-      <c r="BK61" s="32"/>
-      <c r="BL61" s="32"/>
-      <c r="BM61" s="32"/>
-      <c r="BN61" s="32"/>
-      <c r="BO61" s="32"/>
-      <c r="BP61" s="32"/>
-      <c r="BQ61" s="32"/>
-      <c r="BR61" s="32"/>
-      <c r="BS61" s="33"/>
+      <c r="BA61" s="27"/>
+      <c r="BB61" s="28"/>
+      <c r="BC61" s="28"/>
+      <c r="BD61" s="28"/>
+      <c r="BE61" s="28"/>
+      <c r="BF61" s="28"/>
+      <c r="BG61" s="28"/>
+      <c r="BH61" s="28"/>
+      <c r="BI61" s="28"/>
+      <c r="BJ61" s="28"/>
+      <c r="BK61" s="28"/>
+      <c r="BL61" s="28"/>
+      <c r="BM61" s="28"/>
+      <c r="BN61" s="28"/>
+      <c r="BO61" s="28"/>
+      <c r="BP61" s="28"/>
+      <c r="BQ61" s="28"/>
+      <c r="BR61" s="28"/>
+      <c r="BS61" s="29"/>
       <c r="BT61" s="6"/>
       <c r="BU61" s="7"/>
       <c r="BV61" s="8"/>
@@ -5757,25 +5845,25 @@
       <c r="AX62" s="7"/>
       <c r="AY62" s="7"/>
       <c r="AZ62" s="8"/>
-      <c r="BA62" s="31"/>
-      <c r="BB62" s="32"/>
-      <c r="BC62" s="32"/>
-      <c r="BD62" s="32"/>
-      <c r="BE62" s="32"/>
-      <c r="BF62" s="32"/>
-      <c r="BG62" s="32"/>
-      <c r="BH62" s="32"/>
-      <c r="BI62" s="32"/>
-      <c r="BJ62" s="32"/>
-      <c r="BK62" s="32"/>
-      <c r="BL62" s="32"/>
-      <c r="BM62" s="32"/>
-      <c r="BN62" s="32"/>
-      <c r="BO62" s="32"/>
-      <c r="BP62" s="32"/>
-      <c r="BQ62" s="32"/>
-      <c r="BR62" s="32"/>
-      <c r="BS62" s="33"/>
+      <c r="BA62" s="27"/>
+      <c r="BB62" s="28"/>
+      <c r="BC62" s="28"/>
+      <c r="BD62" s="28"/>
+      <c r="BE62" s="28"/>
+      <c r="BF62" s="28"/>
+      <c r="BG62" s="28"/>
+      <c r="BH62" s="28"/>
+      <c r="BI62" s="28"/>
+      <c r="BJ62" s="28"/>
+      <c r="BK62" s="28"/>
+      <c r="BL62" s="28"/>
+      <c r="BM62" s="28"/>
+      <c r="BN62" s="28"/>
+      <c r="BO62" s="28"/>
+      <c r="BP62" s="28"/>
+      <c r="BQ62" s="28"/>
+      <c r="BR62" s="28"/>
+      <c r="BS62" s="29"/>
       <c r="BT62" s="6"/>
       <c r="BU62" s="7"/>
       <c r="BV62" s="8"/>
@@ -5833,25 +5921,25 @@
       <c r="AX63" s="7"/>
       <c r="AY63" s="7"/>
       <c r="AZ63" s="8"/>
-      <c r="BA63" s="31"/>
-      <c r="BB63" s="32"/>
-      <c r="BC63" s="32"/>
-      <c r="BD63" s="32"/>
-      <c r="BE63" s="32"/>
-      <c r="BF63" s="32"/>
-      <c r="BG63" s="32"/>
-      <c r="BH63" s="32"/>
-      <c r="BI63" s="32"/>
-      <c r="BJ63" s="32"/>
-      <c r="BK63" s="32"/>
-      <c r="BL63" s="32"/>
-      <c r="BM63" s="32"/>
-      <c r="BN63" s="32"/>
-      <c r="BO63" s="32"/>
-      <c r="BP63" s="32"/>
-      <c r="BQ63" s="32"/>
-      <c r="BR63" s="32"/>
-      <c r="BS63" s="33"/>
+      <c r="BA63" s="27"/>
+      <c r="BB63" s="28"/>
+      <c r="BC63" s="28"/>
+      <c r="BD63" s="28"/>
+      <c r="BE63" s="28"/>
+      <c r="BF63" s="28"/>
+      <c r="BG63" s="28"/>
+      <c r="BH63" s="28"/>
+      <c r="BI63" s="28"/>
+      <c r="BJ63" s="28"/>
+      <c r="BK63" s="28"/>
+      <c r="BL63" s="28"/>
+      <c r="BM63" s="28"/>
+      <c r="BN63" s="28"/>
+      <c r="BO63" s="28"/>
+      <c r="BP63" s="28"/>
+      <c r="BQ63" s="28"/>
+      <c r="BR63" s="28"/>
+      <c r="BS63" s="29"/>
       <c r="BT63" s="6"/>
       <c r="BU63" s="7"/>
       <c r="BV63" s="8"/>
@@ -5909,25 +5997,25 @@
       <c r="AX64" s="7"/>
       <c r="AY64" s="7"/>
       <c r="AZ64" s="8"/>
-      <c r="BA64" s="31"/>
-      <c r="BB64" s="32"/>
-      <c r="BC64" s="32"/>
-      <c r="BD64" s="32"/>
-      <c r="BE64" s="32"/>
-      <c r="BF64" s="32"/>
-      <c r="BG64" s="32"/>
-      <c r="BH64" s="32"/>
-      <c r="BI64" s="32"/>
-      <c r="BJ64" s="32"/>
-      <c r="BK64" s="32"/>
-      <c r="BL64" s="32"/>
-      <c r="BM64" s="32"/>
-      <c r="BN64" s="32"/>
-      <c r="BO64" s="32"/>
-      <c r="BP64" s="32"/>
-      <c r="BQ64" s="32"/>
-      <c r="BR64" s="32"/>
-      <c r="BS64" s="33"/>
+      <c r="BA64" s="27"/>
+      <c r="BB64" s="28"/>
+      <c r="BC64" s="28"/>
+      <c r="BD64" s="28"/>
+      <c r="BE64" s="28"/>
+      <c r="BF64" s="28"/>
+      <c r="BG64" s="28"/>
+      <c r="BH64" s="28"/>
+      <c r="BI64" s="28"/>
+      <c r="BJ64" s="28"/>
+      <c r="BK64" s="28"/>
+      <c r="BL64" s="28"/>
+      <c r="BM64" s="28"/>
+      <c r="BN64" s="28"/>
+      <c r="BO64" s="28"/>
+      <c r="BP64" s="28"/>
+      <c r="BQ64" s="28"/>
+      <c r="BR64" s="28"/>
+      <c r="BS64" s="29"/>
       <c r="BT64" s="6"/>
       <c r="BU64" s="7"/>
       <c r="BV64" s="8"/>
@@ -5985,25 +6073,25 @@
       <c r="AX65" s="7"/>
       <c r="AY65" s="7"/>
       <c r="AZ65" s="8"/>
-      <c r="BA65" s="31"/>
-      <c r="BB65" s="32"/>
-      <c r="BC65" s="32"/>
-      <c r="BD65" s="32"/>
-      <c r="BE65" s="32"/>
-      <c r="BF65" s="32"/>
-      <c r="BG65" s="32"/>
-      <c r="BH65" s="32"/>
-      <c r="BI65" s="32"/>
-      <c r="BJ65" s="32"/>
-      <c r="BK65" s="32"/>
-      <c r="BL65" s="32"/>
-      <c r="BM65" s="32"/>
-      <c r="BN65" s="32"/>
-      <c r="BO65" s="32"/>
-      <c r="BP65" s="32"/>
-      <c r="BQ65" s="32"/>
-      <c r="BR65" s="32"/>
-      <c r="BS65" s="33"/>
+      <c r="BA65" s="27"/>
+      <c r="BB65" s="28"/>
+      <c r="BC65" s="28"/>
+      <c r="BD65" s="28"/>
+      <c r="BE65" s="28"/>
+      <c r="BF65" s="28"/>
+      <c r="BG65" s="28"/>
+      <c r="BH65" s="28"/>
+      <c r="BI65" s="28"/>
+      <c r="BJ65" s="28"/>
+      <c r="BK65" s="28"/>
+      <c r="BL65" s="28"/>
+      <c r="BM65" s="28"/>
+      <c r="BN65" s="28"/>
+      <c r="BO65" s="28"/>
+      <c r="BP65" s="28"/>
+      <c r="BQ65" s="28"/>
+      <c r="BR65" s="28"/>
+      <c r="BS65" s="29"/>
       <c r="BT65" s="6"/>
       <c r="BU65" s="7"/>
       <c r="BV65" s="8"/>
@@ -6061,25 +6149,25 @@
       <c r="AX66" s="7"/>
       <c r="AY66" s="7"/>
       <c r="AZ66" s="8"/>
-      <c r="BA66" s="31"/>
-      <c r="BB66" s="32"/>
-      <c r="BC66" s="32"/>
-      <c r="BD66" s="32"/>
-      <c r="BE66" s="32"/>
-      <c r="BF66" s="32"/>
-      <c r="BG66" s="32"/>
-      <c r="BH66" s="32"/>
-      <c r="BI66" s="32"/>
-      <c r="BJ66" s="32"/>
-      <c r="BK66" s="32"/>
-      <c r="BL66" s="32"/>
-      <c r="BM66" s="32"/>
-      <c r="BN66" s="32"/>
-      <c r="BO66" s="32"/>
-      <c r="BP66" s="32"/>
-      <c r="BQ66" s="32"/>
-      <c r="BR66" s="32"/>
-      <c r="BS66" s="33"/>
+      <c r="BA66" s="27"/>
+      <c r="BB66" s="28"/>
+      <c r="BC66" s="28"/>
+      <c r="BD66" s="28"/>
+      <c r="BE66" s="28"/>
+      <c r="BF66" s="28"/>
+      <c r="BG66" s="28"/>
+      <c r="BH66" s="28"/>
+      <c r="BI66" s="28"/>
+      <c r="BJ66" s="28"/>
+      <c r="BK66" s="28"/>
+      <c r="BL66" s="28"/>
+      <c r="BM66" s="28"/>
+      <c r="BN66" s="28"/>
+      <c r="BO66" s="28"/>
+      <c r="BP66" s="28"/>
+      <c r="BQ66" s="28"/>
+      <c r="BR66" s="28"/>
+      <c r="BS66" s="29"/>
       <c r="BT66" s="6"/>
       <c r="BU66" s="7"/>
       <c r="BV66" s="8"/>
@@ -6137,25 +6225,25 @@
       <c r="AX67" s="7"/>
       <c r="AY67" s="7"/>
       <c r="AZ67" s="8"/>
-      <c r="BA67" s="31"/>
-      <c r="BB67" s="32"/>
-      <c r="BC67" s="32"/>
-      <c r="BD67" s="32"/>
-      <c r="BE67" s="32"/>
-      <c r="BF67" s="32"/>
-      <c r="BG67" s="32"/>
-      <c r="BH67" s="32"/>
-      <c r="BI67" s="32"/>
-      <c r="BJ67" s="32"/>
-      <c r="BK67" s="32"/>
-      <c r="BL67" s="32"/>
-      <c r="BM67" s="32"/>
-      <c r="BN67" s="32"/>
-      <c r="BO67" s="32"/>
-      <c r="BP67" s="32"/>
-      <c r="BQ67" s="32"/>
-      <c r="BR67" s="32"/>
-      <c r="BS67" s="33"/>
+      <c r="BA67" s="27"/>
+      <c r="BB67" s="28"/>
+      <c r="BC67" s="28"/>
+      <c r="BD67" s="28"/>
+      <c r="BE67" s="28"/>
+      <c r="BF67" s="28"/>
+      <c r="BG67" s="28"/>
+      <c r="BH67" s="28"/>
+      <c r="BI67" s="28"/>
+      <c r="BJ67" s="28"/>
+      <c r="BK67" s="28"/>
+      <c r="BL67" s="28"/>
+      <c r="BM67" s="28"/>
+      <c r="BN67" s="28"/>
+      <c r="BO67" s="28"/>
+      <c r="BP67" s="28"/>
+      <c r="BQ67" s="28"/>
+      <c r="BR67" s="28"/>
+      <c r="BS67" s="29"/>
       <c r="BT67" s="6"/>
       <c r="BU67" s="7"/>
       <c r="BV67" s="8"/>
@@ -6213,25 +6301,25 @@
       <c r="AX68" s="7"/>
       <c r="AY68" s="7"/>
       <c r="AZ68" s="8"/>
-      <c r="BA68" s="31"/>
-      <c r="BB68" s="32"/>
-      <c r="BC68" s="32"/>
-      <c r="BD68" s="32"/>
-      <c r="BE68" s="32"/>
-      <c r="BF68" s="32"/>
-      <c r="BG68" s="32"/>
-      <c r="BH68" s="32"/>
-      <c r="BI68" s="32"/>
-      <c r="BJ68" s="32"/>
-      <c r="BK68" s="32"/>
-      <c r="BL68" s="32"/>
-      <c r="BM68" s="32"/>
-      <c r="BN68" s="32"/>
-      <c r="BO68" s="32"/>
-      <c r="BP68" s="32"/>
-      <c r="BQ68" s="32"/>
-      <c r="BR68" s="32"/>
-      <c r="BS68" s="33"/>
+      <c r="BA68" s="27"/>
+      <c r="BB68" s="28"/>
+      <c r="BC68" s="28"/>
+      <c r="BD68" s="28"/>
+      <c r="BE68" s="28"/>
+      <c r="BF68" s="28"/>
+      <c r="BG68" s="28"/>
+      <c r="BH68" s="28"/>
+      <c r="BI68" s="28"/>
+      <c r="BJ68" s="28"/>
+      <c r="BK68" s="28"/>
+      <c r="BL68" s="28"/>
+      <c r="BM68" s="28"/>
+      <c r="BN68" s="28"/>
+      <c r="BO68" s="28"/>
+      <c r="BP68" s="28"/>
+      <c r="BQ68" s="28"/>
+      <c r="BR68" s="28"/>
+      <c r="BS68" s="29"/>
       <c r="BT68" s="6"/>
       <c r="BU68" s="7"/>
       <c r="BV68" s="8"/>
@@ -6289,25 +6377,25 @@
       <c r="AX69" s="7"/>
       <c r="AY69" s="7"/>
       <c r="AZ69" s="8"/>
-      <c r="BA69" s="31"/>
-      <c r="BB69" s="32"/>
-      <c r="BC69" s="32"/>
-      <c r="BD69" s="32"/>
-      <c r="BE69" s="32"/>
-      <c r="BF69" s="32"/>
-      <c r="BG69" s="32"/>
-      <c r="BH69" s="32"/>
-      <c r="BI69" s="32"/>
-      <c r="BJ69" s="32"/>
-      <c r="BK69" s="32"/>
-      <c r="BL69" s="32"/>
-      <c r="BM69" s="32"/>
-      <c r="BN69" s="32"/>
-      <c r="BO69" s="32"/>
-      <c r="BP69" s="32"/>
-      <c r="BQ69" s="32"/>
-      <c r="BR69" s="32"/>
-      <c r="BS69" s="33"/>
+      <c r="BA69" s="27"/>
+      <c r="BB69" s="28"/>
+      <c r="BC69" s="28"/>
+      <c r="BD69" s="28"/>
+      <c r="BE69" s="28"/>
+      <c r="BF69" s="28"/>
+      <c r="BG69" s="28"/>
+      <c r="BH69" s="28"/>
+      <c r="BI69" s="28"/>
+      <c r="BJ69" s="28"/>
+      <c r="BK69" s="28"/>
+      <c r="BL69" s="28"/>
+      <c r="BM69" s="28"/>
+      <c r="BN69" s="28"/>
+      <c r="BO69" s="28"/>
+      <c r="BP69" s="28"/>
+      <c r="BQ69" s="28"/>
+      <c r="BR69" s="28"/>
+      <c r="BS69" s="29"/>
       <c r="BT69" s="6"/>
       <c r="BU69" s="7"/>
       <c r="BV69" s="8"/>
@@ -6365,25 +6453,25 @@
       <c r="AX70" s="7"/>
       <c r="AY70" s="7"/>
       <c r="AZ70" s="8"/>
-      <c r="BA70" s="31"/>
-      <c r="BB70" s="32"/>
-      <c r="BC70" s="32"/>
-      <c r="BD70" s="32"/>
-      <c r="BE70" s="32"/>
-      <c r="BF70" s="32"/>
-      <c r="BG70" s="32"/>
-      <c r="BH70" s="32"/>
-      <c r="BI70" s="32"/>
-      <c r="BJ70" s="32"/>
-      <c r="BK70" s="32"/>
-      <c r="BL70" s="32"/>
-      <c r="BM70" s="32"/>
-      <c r="BN70" s="32"/>
-      <c r="BO70" s="32"/>
-      <c r="BP70" s="32"/>
-      <c r="BQ70" s="32"/>
-      <c r="BR70" s="32"/>
-      <c r="BS70" s="33"/>
+      <c r="BA70" s="27"/>
+      <c r="BB70" s="28"/>
+      <c r="BC70" s="28"/>
+      <c r="BD70" s="28"/>
+      <c r="BE70" s="28"/>
+      <c r="BF70" s="28"/>
+      <c r="BG70" s="28"/>
+      <c r="BH70" s="28"/>
+      <c r="BI70" s="28"/>
+      <c r="BJ70" s="28"/>
+      <c r="BK70" s="28"/>
+      <c r="BL70" s="28"/>
+      <c r="BM70" s="28"/>
+      <c r="BN70" s="28"/>
+      <c r="BO70" s="28"/>
+      <c r="BP70" s="28"/>
+      <c r="BQ70" s="28"/>
+      <c r="BR70" s="28"/>
+      <c r="BS70" s="29"/>
       <c r="BT70" s="6"/>
       <c r="BU70" s="7"/>
       <c r="BV70" s="8"/>
@@ -6441,25 +6529,25 @@
       <c r="AX71" s="7"/>
       <c r="AY71" s="7"/>
       <c r="AZ71" s="8"/>
-      <c r="BA71" s="31"/>
-      <c r="BB71" s="32"/>
-      <c r="BC71" s="32"/>
-      <c r="BD71" s="32"/>
-      <c r="BE71" s="32"/>
-      <c r="BF71" s="32"/>
-      <c r="BG71" s="32"/>
-      <c r="BH71" s="32"/>
-      <c r="BI71" s="32"/>
-      <c r="BJ71" s="32"/>
-      <c r="BK71" s="32"/>
-      <c r="BL71" s="32"/>
-      <c r="BM71" s="32"/>
-      <c r="BN71" s="32"/>
-      <c r="BO71" s="32"/>
-      <c r="BP71" s="32"/>
-      <c r="BQ71" s="32"/>
-      <c r="BR71" s="32"/>
-      <c r="BS71" s="33"/>
+      <c r="BA71" s="27"/>
+      <c r="BB71" s="28"/>
+      <c r="BC71" s="28"/>
+      <c r="BD71" s="28"/>
+      <c r="BE71" s="28"/>
+      <c r="BF71" s="28"/>
+      <c r="BG71" s="28"/>
+      <c r="BH71" s="28"/>
+      <c r="BI71" s="28"/>
+      <c r="BJ71" s="28"/>
+      <c r="BK71" s="28"/>
+      <c r="BL71" s="28"/>
+      <c r="BM71" s="28"/>
+      <c r="BN71" s="28"/>
+      <c r="BO71" s="28"/>
+      <c r="BP71" s="28"/>
+      <c r="BQ71" s="28"/>
+      <c r="BR71" s="28"/>
+      <c r="BS71" s="29"/>
       <c r="BT71" s="6"/>
       <c r="BU71" s="7"/>
       <c r="BV71" s="8"/>
@@ -6517,25 +6605,25 @@
       <c r="AX72" s="7"/>
       <c r="AY72" s="7"/>
       <c r="AZ72" s="8"/>
-      <c r="BA72" s="31"/>
-      <c r="BB72" s="32"/>
-      <c r="BC72" s="32"/>
-      <c r="BD72" s="32"/>
-      <c r="BE72" s="32"/>
-      <c r="BF72" s="32"/>
-      <c r="BG72" s="32"/>
-      <c r="BH72" s="32"/>
-      <c r="BI72" s="32"/>
-      <c r="BJ72" s="32"/>
-      <c r="BK72" s="32"/>
-      <c r="BL72" s="32"/>
-      <c r="BM72" s="32"/>
-      <c r="BN72" s="32"/>
-      <c r="BO72" s="32"/>
-      <c r="BP72" s="32"/>
-      <c r="BQ72" s="32"/>
-      <c r="BR72" s="32"/>
-      <c r="BS72" s="33"/>
+      <c r="BA72" s="27"/>
+      <c r="BB72" s="28"/>
+      <c r="BC72" s="28"/>
+      <c r="BD72" s="28"/>
+      <c r="BE72" s="28"/>
+      <c r="BF72" s="28"/>
+      <c r="BG72" s="28"/>
+      <c r="BH72" s="28"/>
+      <c r="BI72" s="28"/>
+      <c r="BJ72" s="28"/>
+      <c r="BK72" s="28"/>
+      <c r="BL72" s="28"/>
+      <c r="BM72" s="28"/>
+      <c r="BN72" s="28"/>
+      <c r="BO72" s="28"/>
+      <c r="BP72" s="28"/>
+      <c r="BQ72" s="28"/>
+      <c r="BR72" s="28"/>
+      <c r="BS72" s="29"/>
       <c r="BT72" s="6"/>
       <c r="BU72" s="7"/>
       <c r="BV72" s="8"/>
@@ -6593,25 +6681,25 @@
       <c r="AX73" s="7"/>
       <c r="AY73" s="7"/>
       <c r="AZ73" s="8"/>
-      <c r="BA73" s="31"/>
-      <c r="BB73" s="32"/>
-      <c r="BC73" s="32"/>
-      <c r="BD73" s="32"/>
-      <c r="BE73" s="32"/>
-      <c r="BF73" s="32"/>
-      <c r="BG73" s="32"/>
-      <c r="BH73" s="32"/>
-      <c r="BI73" s="32"/>
-      <c r="BJ73" s="32"/>
-      <c r="BK73" s="32"/>
-      <c r="BL73" s="32"/>
-      <c r="BM73" s="32"/>
-      <c r="BN73" s="32"/>
-      <c r="BO73" s="32"/>
-      <c r="BP73" s="32"/>
-      <c r="BQ73" s="32"/>
-      <c r="BR73" s="32"/>
-      <c r="BS73" s="33"/>
+      <c r="BA73" s="27"/>
+      <c r="BB73" s="28"/>
+      <c r="BC73" s="28"/>
+      <c r="BD73" s="28"/>
+      <c r="BE73" s="28"/>
+      <c r="BF73" s="28"/>
+      <c r="BG73" s="28"/>
+      <c r="BH73" s="28"/>
+      <c r="BI73" s="28"/>
+      <c r="BJ73" s="28"/>
+      <c r="BK73" s="28"/>
+      <c r="BL73" s="28"/>
+      <c r="BM73" s="28"/>
+      <c r="BN73" s="28"/>
+      <c r="BO73" s="28"/>
+      <c r="BP73" s="28"/>
+      <c r="BQ73" s="28"/>
+      <c r="BR73" s="28"/>
+      <c r="BS73" s="29"/>
       <c r="BT73" s="6"/>
       <c r="BU73" s="7"/>
       <c r="BV73" s="8"/>
@@ -6669,25 +6757,25 @@
       <c r="AX74" s="7"/>
       <c r="AY74" s="7"/>
       <c r="AZ74" s="8"/>
-      <c r="BA74" s="31"/>
-      <c r="BB74" s="32"/>
-      <c r="BC74" s="32"/>
-      <c r="BD74" s="32"/>
-      <c r="BE74" s="32"/>
-      <c r="BF74" s="32"/>
-      <c r="BG74" s="32"/>
-      <c r="BH74" s="32"/>
-      <c r="BI74" s="32"/>
-      <c r="BJ74" s="32"/>
-      <c r="BK74" s="32"/>
-      <c r="BL74" s="32"/>
-      <c r="BM74" s="32"/>
-      <c r="BN74" s="32"/>
-      <c r="BO74" s="32"/>
-      <c r="BP74" s="32"/>
-      <c r="BQ74" s="32"/>
-      <c r="BR74" s="32"/>
-      <c r="BS74" s="33"/>
+      <c r="BA74" s="27"/>
+      <c r="BB74" s="28"/>
+      <c r="BC74" s="28"/>
+      <c r="BD74" s="28"/>
+      <c r="BE74" s="28"/>
+      <c r="BF74" s="28"/>
+      <c r="BG74" s="28"/>
+      <c r="BH74" s="28"/>
+      <c r="BI74" s="28"/>
+      <c r="BJ74" s="28"/>
+      <c r="BK74" s="28"/>
+      <c r="BL74" s="28"/>
+      <c r="BM74" s="28"/>
+      <c r="BN74" s="28"/>
+      <c r="BO74" s="28"/>
+      <c r="BP74" s="28"/>
+      <c r="BQ74" s="28"/>
+      <c r="BR74" s="28"/>
+      <c r="BS74" s="29"/>
       <c r="BT74" s="6"/>
       <c r="BU74" s="7"/>
       <c r="BV74" s="8"/>
@@ -6745,25 +6833,25 @@
       <c r="AX75" s="7"/>
       <c r="AY75" s="7"/>
       <c r="AZ75" s="8"/>
-      <c r="BA75" s="31"/>
-      <c r="BB75" s="32"/>
-      <c r="BC75" s="32"/>
-      <c r="BD75" s="32"/>
-      <c r="BE75" s="32"/>
-      <c r="BF75" s="32"/>
-      <c r="BG75" s="32"/>
-      <c r="BH75" s="32"/>
-      <c r="BI75" s="32"/>
-      <c r="BJ75" s="32"/>
-      <c r="BK75" s="32"/>
-      <c r="BL75" s="32"/>
-      <c r="BM75" s="32"/>
-      <c r="BN75" s="32"/>
-      <c r="BO75" s="32"/>
-      <c r="BP75" s="32"/>
-      <c r="BQ75" s="32"/>
-      <c r="BR75" s="32"/>
-      <c r="BS75" s="33"/>
+      <c r="BA75" s="27"/>
+      <c r="BB75" s="28"/>
+      <c r="BC75" s="28"/>
+      <c r="BD75" s="28"/>
+      <c r="BE75" s="28"/>
+      <c r="BF75" s="28"/>
+      <c r="BG75" s="28"/>
+      <c r="BH75" s="28"/>
+      <c r="BI75" s="28"/>
+      <c r="BJ75" s="28"/>
+      <c r="BK75" s="28"/>
+      <c r="BL75" s="28"/>
+      <c r="BM75" s="28"/>
+      <c r="BN75" s="28"/>
+      <c r="BO75" s="28"/>
+      <c r="BP75" s="28"/>
+      <c r="BQ75" s="28"/>
+      <c r="BR75" s="28"/>
+      <c r="BS75" s="29"/>
       <c r="BT75" s="6"/>
       <c r="BU75" s="7"/>
       <c r="BV75" s="8"/>
@@ -6821,25 +6909,25 @@
       <c r="AX76" s="7"/>
       <c r="AY76" s="7"/>
       <c r="AZ76" s="8"/>
-      <c r="BA76" s="31"/>
-      <c r="BB76" s="32"/>
-      <c r="BC76" s="32"/>
-      <c r="BD76" s="32"/>
-      <c r="BE76" s="32"/>
-      <c r="BF76" s="32"/>
-      <c r="BG76" s="32"/>
-      <c r="BH76" s="32"/>
-      <c r="BI76" s="32"/>
-      <c r="BJ76" s="32"/>
-      <c r="BK76" s="32"/>
-      <c r="BL76" s="32"/>
-      <c r="BM76" s="32"/>
-      <c r="BN76" s="32"/>
-      <c r="BO76" s="32"/>
-      <c r="BP76" s="32"/>
-      <c r="BQ76" s="32"/>
-      <c r="BR76" s="32"/>
-      <c r="BS76" s="33"/>
+      <c r="BA76" s="27"/>
+      <c r="BB76" s="28"/>
+      <c r="BC76" s="28"/>
+      <c r="BD76" s="28"/>
+      <c r="BE76" s="28"/>
+      <c r="BF76" s="28"/>
+      <c r="BG76" s="28"/>
+      <c r="BH76" s="28"/>
+      <c r="BI76" s="28"/>
+      <c r="BJ76" s="28"/>
+      <c r="BK76" s="28"/>
+      <c r="BL76" s="28"/>
+      <c r="BM76" s="28"/>
+      <c r="BN76" s="28"/>
+      <c r="BO76" s="28"/>
+      <c r="BP76" s="28"/>
+      <c r="BQ76" s="28"/>
+      <c r="BR76" s="28"/>
+      <c r="BS76" s="29"/>
       <c r="BT76" s="6"/>
       <c r="BU76" s="7"/>
       <c r="BV76" s="8"/>
@@ -6897,25 +6985,25 @@
       <c r="AX77" s="7"/>
       <c r="AY77" s="7"/>
       <c r="AZ77" s="8"/>
-      <c r="BA77" s="31"/>
-      <c r="BB77" s="32"/>
-      <c r="BC77" s="32"/>
-      <c r="BD77" s="32"/>
-      <c r="BE77" s="32"/>
-      <c r="BF77" s="32"/>
-      <c r="BG77" s="32"/>
-      <c r="BH77" s="32"/>
-      <c r="BI77" s="32"/>
-      <c r="BJ77" s="32"/>
-      <c r="BK77" s="32"/>
-      <c r="BL77" s="32"/>
-      <c r="BM77" s="32"/>
-      <c r="BN77" s="32"/>
-      <c r="BO77" s="32"/>
-      <c r="BP77" s="32"/>
-      <c r="BQ77" s="32"/>
-      <c r="BR77" s="32"/>
-      <c r="BS77" s="33"/>
+      <c r="BA77" s="27"/>
+      <c r="BB77" s="28"/>
+      <c r="BC77" s="28"/>
+      <c r="BD77" s="28"/>
+      <c r="BE77" s="28"/>
+      <c r="BF77" s="28"/>
+      <c r="BG77" s="28"/>
+      <c r="BH77" s="28"/>
+      <c r="BI77" s="28"/>
+      <c r="BJ77" s="28"/>
+      <c r="BK77" s="28"/>
+      <c r="BL77" s="28"/>
+      <c r="BM77" s="28"/>
+      <c r="BN77" s="28"/>
+      <c r="BO77" s="28"/>
+      <c r="BP77" s="28"/>
+      <c r="BQ77" s="28"/>
+      <c r="BR77" s="28"/>
+      <c r="BS77" s="29"/>
       <c r="BT77" s="6"/>
       <c r="BU77" s="7"/>
       <c r="BV77" s="8"/>
@@ -6973,25 +7061,25 @@
       <c r="AX78" s="7"/>
       <c r="AY78" s="7"/>
       <c r="AZ78" s="8"/>
-      <c r="BA78" s="31"/>
-      <c r="BB78" s="32"/>
-      <c r="BC78" s="32"/>
-      <c r="BD78" s="32"/>
-      <c r="BE78" s="32"/>
-      <c r="BF78" s="32"/>
-      <c r="BG78" s="32"/>
-      <c r="BH78" s="32"/>
-      <c r="BI78" s="32"/>
-      <c r="BJ78" s="32"/>
-      <c r="BK78" s="32"/>
-      <c r="BL78" s="32"/>
-      <c r="BM78" s="32"/>
-      <c r="BN78" s="32"/>
-      <c r="BO78" s="32"/>
-      <c r="BP78" s="32"/>
-      <c r="BQ78" s="32"/>
-      <c r="BR78" s="32"/>
-      <c r="BS78" s="33"/>
+      <c r="BA78" s="27"/>
+      <c r="BB78" s="28"/>
+      <c r="BC78" s="28"/>
+      <c r="BD78" s="28"/>
+      <c r="BE78" s="28"/>
+      <c r="BF78" s="28"/>
+      <c r="BG78" s="28"/>
+      <c r="BH78" s="28"/>
+      <c r="BI78" s="28"/>
+      <c r="BJ78" s="28"/>
+      <c r="BK78" s="28"/>
+      <c r="BL78" s="28"/>
+      <c r="BM78" s="28"/>
+      <c r="BN78" s="28"/>
+      <c r="BO78" s="28"/>
+      <c r="BP78" s="28"/>
+      <c r="BQ78" s="28"/>
+      <c r="BR78" s="28"/>
+      <c r="BS78" s="29"/>
       <c r="BT78" s="6"/>
       <c r="BU78" s="7"/>
       <c r="BV78" s="8"/>
@@ -7049,25 +7137,25 @@
       <c r="AX79" s="7"/>
       <c r="AY79" s="7"/>
       <c r="AZ79" s="8"/>
-      <c r="BA79" s="31"/>
-      <c r="BB79" s="32"/>
-      <c r="BC79" s="32"/>
-      <c r="BD79" s="32"/>
-      <c r="BE79" s="32"/>
-      <c r="BF79" s="32"/>
-      <c r="BG79" s="32"/>
-      <c r="BH79" s="32"/>
-      <c r="BI79" s="32"/>
-      <c r="BJ79" s="32"/>
-      <c r="BK79" s="32"/>
-      <c r="BL79" s="32"/>
-      <c r="BM79" s="32"/>
-      <c r="BN79" s="32"/>
-      <c r="BO79" s="32"/>
-      <c r="BP79" s="32"/>
-      <c r="BQ79" s="32"/>
-      <c r="BR79" s="32"/>
-      <c r="BS79" s="33"/>
+      <c r="BA79" s="27"/>
+      <c r="BB79" s="28"/>
+      <c r="BC79" s="28"/>
+      <c r="BD79" s="28"/>
+      <c r="BE79" s="28"/>
+      <c r="BF79" s="28"/>
+      <c r="BG79" s="28"/>
+      <c r="BH79" s="28"/>
+      <c r="BI79" s="28"/>
+      <c r="BJ79" s="28"/>
+      <c r="BK79" s="28"/>
+      <c r="BL79" s="28"/>
+      <c r="BM79" s="28"/>
+      <c r="BN79" s="28"/>
+      <c r="BO79" s="28"/>
+      <c r="BP79" s="28"/>
+      <c r="BQ79" s="28"/>
+      <c r="BR79" s="28"/>
+      <c r="BS79" s="29"/>
       <c r="BT79" s="6"/>
       <c r="BU79" s="7"/>
       <c r="BV79" s="8"/>
@@ -7125,25 +7213,25 @@
       <c r="AX80" s="7"/>
       <c r="AY80" s="7"/>
       <c r="AZ80" s="8"/>
-      <c r="BA80" s="31"/>
-      <c r="BB80" s="32"/>
-      <c r="BC80" s="32"/>
-      <c r="BD80" s="32"/>
-      <c r="BE80" s="32"/>
-      <c r="BF80" s="32"/>
-      <c r="BG80" s="32"/>
-      <c r="BH80" s="32"/>
-      <c r="BI80" s="32"/>
-      <c r="BJ80" s="32"/>
-      <c r="BK80" s="32"/>
-      <c r="BL80" s="32"/>
-      <c r="BM80" s="32"/>
-      <c r="BN80" s="32"/>
-      <c r="BO80" s="32"/>
-      <c r="BP80" s="32"/>
-      <c r="BQ80" s="32"/>
-      <c r="BR80" s="32"/>
-      <c r="BS80" s="33"/>
+      <c r="BA80" s="27"/>
+      <c r="BB80" s="28"/>
+      <c r="BC80" s="28"/>
+      <c r="BD80" s="28"/>
+      <c r="BE80" s="28"/>
+      <c r="BF80" s="28"/>
+      <c r="BG80" s="28"/>
+      <c r="BH80" s="28"/>
+      <c r="BI80" s="28"/>
+      <c r="BJ80" s="28"/>
+      <c r="BK80" s="28"/>
+      <c r="BL80" s="28"/>
+      <c r="BM80" s="28"/>
+      <c r="BN80" s="28"/>
+      <c r="BO80" s="28"/>
+      <c r="BP80" s="28"/>
+      <c r="BQ80" s="28"/>
+      <c r="BR80" s="28"/>
+      <c r="BS80" s="29"/>
       <c r="BT80" s="6"/>
       <c r="BU80" s="7"/>
       <c r="BV80" s="8"/>
@@ -7201,25 +7289,25 @@
       <c r="AX81" s="7"/>
       <c r="AY81" s="7"/>
       <c r="AZ81" s="8"/>
-      <c r="BA81" s="31"/>
-      <c r="BB81" s="32"/>
-      <c r="BC81" s="32"/>
-      <c r="BD81" s="32"/>
-      <c r="BE81" s="32"/>
-      <c r="BF81" s="32"/>
-      <c r="BG81" s="32"/>
-      <c r="BH81" s="32"/>
-      <c r="BI81" s="32"/>
-      <c r="BJ81" s="32"/>
-      <c r="BK81" s="32"/>
-      <c r="BL81" s="32"/>
-      <c r="BM81" s="32"/>
-      <c r="BN81" s="32"/>
-      <c r="BO81" s="32"/>
-      <c r="BP81" s="32"/>
-      <c r="BQ81" s="32"/>
-      <c r="BR81" s="32"/>
-      <c r="BS81" s="33"/>
+      <c r="BA81" s="27"/>
+      <c r="BB81" s="28"/>
+      <c r="BC81" s="28"/>
+      <c r="BD81" s="28"/>
+      <c r="BE81" s="28"/>
+      <c r="BF81" s="28"/>
+      <c r="BG81" s="28"/>
+      <c r="BH81" s="28"/>
+      <c r="BI81" s="28"/>
+      <c r="BJ81" s="28"/>
+      <c r="BK81" s="28"/>
+      <c r="BL81" s="28"/>
+      <c r="BM81" s="28"/>
+      <c r="BN81" s="28"/>
+      <c r="BO81" s="28"/>
+      <c r="BP81" s="28"/>
+      <c r="BQ81" s="28"/>
+      <c r="BR81" s="28"/>
+      <c r="BS81" s="29"/>
       <c r="BT81" s="6"/>
       <c r="BU81" s="7"/>
       <c r="BV81" s="8"/>
@@ -7277,25 +7365,25 @@
       <c r="AX82" s="7"/>
       <c r="AY82" s="7"/>
       <c r="AZ82" s="8"/>
-      <c r="BA82" s="31"/>
-      <c r="BB82" s="32"/>
-      <c r="BC82" s="32"/>
-      <c r="BD82" s="32"/>
-      <c r="BE82" s="32"/>
-      <c r="BF82" s="32"/>
-      <c r="BG82" s="32"/>
-      <c r="BH82" s="32"/>
-      <c r="BI82" s="32"/>
-      <c r="BJ82" s="32"/>
-      <c r="BK82" s="32"/>
-      <c r="BL82" s="32"/>
-      <c r="BM82" s="32"/>
-      <c r="BN82" s="32"/>
-      <c r="BO82" s="32"/>
-      <c r="BP82" s="32"/>
-      <c r="BQ82" s="32"/>
-      <c r="BR82" s="32"/>
-      <c r="BS82" s="33"/>
+      <c r="BA82" s="27"/>
+      <c r="BB82" s="28"/>
+      <c r="BC82" s="28"/>
+      <c r="BD82" s="28"/>
+      <c r="BE82" s="28"/>
+      <c r="BF82" s="28"/>
+      <c r="BG82" s="28"/>
+      <c r="BH82" s="28"/>
+      <c r="BI82" s="28"/>
+      <c r="BJ82" s="28"/>
+      <c r="BK82" s="28"/>
+      <c r="BL82" s="28"/>
+      <c r="BM82" s="28"/>
+      <c r="BN82" s="28"/>
+      <c r="BO82" s="28"/>
+      <c r="BP82" s="28"/>
+      <c r="BQ82" s="28"/>
+      <c r="BR82" s="28"/>
+      <c r="BS82" s="29"/>
       <c r="BT82" s="6"/>
       <c r="BU82" s="7"/>
       <c r="BV82" s="8"/>
@@ -7353,25 +7441,25 @@
       <c r="AX83" s="7"/>
       <c r="AY83" s="7"/>
       <c r="AZ83" s="8"/>
-      <c r="BA83" s="31"/>
-      <c r="BB83" s="32"/>
-      <c r="BC83" s="32"/>
-      <c r="BD83" s="32"/>
-      <c r="BE83" s="32"/>
-      <c r="BF83" s="32"/>
-      <c r="BG83" s="32"/>
-      <c r="BH83" s="32"/>
-      <c r="BI83" s="32"/>
-      <c r="BJ83" s="32"/>
-      <c r="BK83" s="32"/>
-      <c r="BL83" s="32"/>
-      <c r="BM83" s="32"/>
-      <c r="BN83" s="32"/>
-      <c r="BO83" s="32"/>
-      <c r="BP83" s="32"/>
-      <c r="BQ83" s="32"/>
-      <c r="BR83" s="32"/>
-      <c r="BS83" s="33"/>
+      <c r="BA83" s="27"/>
+      <c r="BB83" s="28"/>
+      <c r="BC83" s="28"/>
+      <c r="BD83" s="28"/>
+      <c r="BE83" s="28"/>
+      <c r="BF83" s="28"/>
+      <c r="BG83" s="28"/>
+      <c r="BH83" s="28"/>
+      <c r="BI83" s="28"/>
+      <c r="BJ83" s="28"/>
+      <c r="BK83" s="28"/>
+      <c r="BL83" s="28"/>
+      <c r="BM83" s="28"/>
+      <c r="BN83" s="28"/>
+      <c r="BO83" s="28"/>
+      <c r="BP83" s="28"/>
+      <c r="BQ83" s="28"/>
+      <c r="BR83" s="28"/>
+      <c r="BS83" s="29"/>
       <c r="BT83" s="6"/>
       <c r="BU83" s="7"/>
       <c r="BV83" s="8"/>
@@ -7429,25 +7517,25 @@
       <c r="AX84" s="7"/>
       <c r="AY84" s="7"/>
       <c r="AZ84" s="8"/>
-      <c r="BA84" s="31"/>
-      <c r="BB84" s="32"/>
-      <c r="BC84" s="32"/>
-      <c r="BD84" s="32"/>
-      <c r="BE84" s="32"/>
-      <c r="BF84" s="32"/>
-      <c r="BG84" s="32"/>
-      <c r="BH84" s="32"/>
-      <c r="BI84" s="32"/>
-      <c r="BJ84" s="32"/>
-      <c r="BK84" s="32"/>
-      <c r="BL84" s="32"/>
-      <c r="BM84" s="32"/>
-      <c r="BN84" s="32"/>
-      <c r="BO84" s="32"/>
-      <c r="BP84" s="32"/>
-      <c r="BQ84" s="32"/>
-      <c r="BR84" s="32"/>
-      <c r="BS84" s="33"/>
+      <c r="BA84" s="27"/>
+      <c r="BB84" s="28"/>
+      <c r="BC84" s="28"/>
+      <c r="BD84" s="28"/>
+      <c r="BE84" s="28"/>
+      <c r="BF84" s="28"/>
+      <c r="BG84" s="28"/>
+      <c r="BH84" s="28"/>
+      <c r="BI84" s="28"/>
+      <c r="BJ84" s="28"/>
+      <c r="BK84" s="28"/>
+      <c r="BL84" s="28"/>
+      <c r="BM84" s="28"/>
+      <c r="BN84" s="28"/>
+      <c r="BO84" s="28"/>
+      <c r="BP84" s="28"/>
+      <c r="BQ84" s="28"/>
+      <c r="BR84" s="28"/>
+      <c r="BS84" s="29"/>
       <c r="BT84" s="6"/>
       <c r="BU84" s="7"/>
       <c r="BV84" s="8"/>
@@ -7505,25 +7593,25 @@
       <c r="AX85" s="7"/>
       <c r="AY85" s="7"/>
       <c r="AZ85" s="8"/>
-      <c r="BA85" s="31"/>
-      <c r="BB85" s="32"/>
-      <c r="BC85" s="32"/>
-      <c r="BD85" s="32"/>
-      <c r="BE85" s="32"/>
-      <c r="BF85" s="32"/>
-      <c r="BG85" s="32"/>
-      <c r="BH85" s="32"/>
-      <c r="BI85" s="32"/>
-      <c r="BJ85" s="32"/>
-      <c r="BK85" s="32"/>
-      <c r="BL85" s="32"/>
-      <c r="BM85" s="32"/>
-      <c r="BN85" s="32"/>
-      <c r="BO85" s="32"/>
-      <c r="BP85" s="32"/>
-      <c r="BQ85" s="32"/>
-      <c r="BR85" s="32"/>
-      <c r="BS85" s="33"/>
+      <c r="BA85" s="27"/>
+      <c r="BB85" s="28"/>
+      <c r="BC85" s="28"/>
+      <c r="BD85" s="28"/>
+      <c r="BE85" s="28"/>
+      <c r="BF85" s="28"/>
+      <c r="BG85" s="28"/>
+      <c r="BH85" s="28"/>
+      <c r="BI85" s="28"/>
+      <c r="BJ85" s="28"/>
+      <c r="BK85" s="28"/>
+      <c r="BL85" s="28"/>
+      <c r="BM85" s="28"/>
+      <c r="BN85" s="28"/>
+      <c r="BO85" s="28"/>
+      <c r="BP85" s="28"/>
+      <c r="BQ85" s="28"/>
+      <c r="BR85" s="28"/>
+      <c r="BS85" s="29"/>
       <c r="BT85" s="6"/>
       <c r="BU85" s="7"/>
       <c r="BV85" s="8"/>
@@ -7581,25 +7669,25 @@
       <c r="AX86" s="7"/>
       <c r="AY86" s="7"/>
       <c r="AZ86" s="8"/>
-      <c r="BA86" s="31"/>
-      <c r="BB86" s="32"/>
-      <c r="BC86" s="32"/>
-      <c r="BD86" s="32"/>
-      <c r="BE86" s="32"/>
-      <c r="BF86" s="32"/>
-      <c r="BG86" s="32"/>
-      <c r="BH86" s="32"/>
-      <c r="BI86" s="32"/>
-      <c r="BJ86" s="32"/>
-      <c r="BK86" s="32"/>
-      <c r="BL86" s="32"/>
-      <c r="BM86" s="32"/>
-      <c r="BN86" s="32"/>
-      <c r="BO86" s="32"/>
-      <c r="BP86" s="32"/>
-      <c r="BQ86" s="32"/>
-      <c r="BR86" s="32"/>
-      <c r="BS86" s="33"/>
+      <c r="BA86" s="27"/>
+      <c r="BB86" s="28"/>
+      <c r="BC86" s="28"/>
+      <c r="BD86" s="28"/>
+      <c r="BE86" s="28"/>
+      <c r="BF86" s="28"/>
+      <c r="BG86" s="28"/>
+      <c r="BH86" s="28"/>
+      <c r="BI86" s="28"/>
+      <c r="BJ86" s="28"/>
+      <c r="BK86" s="28"/>
+      <c r="BL86" s="28"/>
+      <c r="BM86" s="28"/>
+      <c r="BN86" s="28"/>
+      <c r="BO86" s="28"/>
+      <c r="BP86" s="28"/>
+      <c r="BQ86" s="28"/>
+      <c r="BR86" s="28"/>
+      <c r="BS86" s="29"/>
       <c r="BT86" s="6"/>
       <c r="BU86" s="7"/>
       <c r="BV86" s="8"/>
@@ -7657,25 +7745,25 @@
       <c r="AX87" s="7"/>
       <c r="AY87" s="7"/>
       <c r="AZ87" s="8"/>
-      <c r="BA87" s="31"/>
-      <c r="BB87" s="32"/>
-      <c r="BC87" s="32"/>
-      <c r="BD87" s="32"/>
-      <c r="BE87" s="32"/>
-      <c r="BF87" s="32"/>
-      <c r="BG87" s="32"/>
-      <c r="BH87" s="32"/>
-      <c r="BI87" s="32"/>
-      <c r="BJ87" s="32"/>
-      <c r="BK87" s="32"/>
-      <c r="BL87" s="32"/>
-      <c r="BM87" s="32"/>
-      <c r="BN87" s="32"/>
-      <c r="BO87" s="32"/>
-      <c r="BP87" s="32"/>
-      <c r="BQ87" s="32"/>
-      <c r="BR87" s="32"/>
-      <c r="BS87" s="33"/>
+      <c r="BA87" s="27"/>
+      <c r="BB87" s="28"/>
+      <c r="BC87" s="28"/>
+      <c r="BD87" s="28"/>
+      <c r="BE87" s="28"/>
+      <c r="BF87" s="28"/>
+      <c r="BG87" s="28"/>
+      <c r="BH87" s="28"/>
+      <c r="BI87" s="28"/>
+      <c r="BJ87" s="28"/>
+      <c r="BK87" s="28"/>
+      <c r="BL87" s="28"/>
+      <c r="BM87" s="28"/>
+      <c r="BN87" s="28"/>
+      <c r="BO87" s="28"/>
+      <c r="BP87" s="28"/>
+      <c r="BQ87" s="28"/>
+      <c r="BR87" s="28"/>
+      <c r="BS87" s="29"/>
       <c r="BT87" s="6"/>
       <c r="BU87" s="7"/>
       <c r="BV87" s="8"/>
@@ -7733,25 +7821,25 @@
       <c r="AX88" s="7"/>
       <c r="AY88" s="7"/>
       <c r="AZ88" s="8"/>
-      <c r="BA88" s="31"/>
-      <c r="BB88" s="32"/>
-      <c r="BC88" s="32"/>
-      <c r="BD88" s="32"/>
-      <c r="BE88" s="32"/>
-      <c r="BF88" s="32"/>
-      <c r="BG88" s="32"/>
-      <c r="BH88" s="32"/>
-      <c r="BI88" s="32"/>
-      <c r="BJ88" s="32"/>
-      <c r="BK88" s="32"/>
-      <c r="BL88" s="32"/>
-      <c r="BM88" s="32"/>
-      <c r="BN88" s="32"/>
-      <c r="BO88" s="32"/>
-      <c r="BP88" s="32"/>
-      <c r="BQ88" s="32"/>
-      <c r="BR88" s="32"/>
-      <c r="BS88" s="33"/>
+      <c r="BA88" s="27"/>
+      <c r="BB88" s="28"/>
+      <c r="BC88" s="28"/>
+      <c r="BD88" s="28"/>
+      <c r="BE88" s="28"/>
+      <c r="BF88" s="28"/>
+      <c r="BG88" s="28"/>
+      <c r="BH88" s="28"/>
+      <c r="BI88" s="28"/>
+      <c r="BJ88" s="28"/>
+      <c r="BK88" s="28"/>
+      <c r="BL88" s="28"/>
+      <c r="BM88" s="28"/>
+      <c r="BN88" s="28"/>
+      <c r="BO88" s="28"/>
+      <c r="BP88" s="28"/>
+      <c r="BQ88" s="28"/>
+      <c r="BR88" s="28"/>
+      <c r="BS88" s="29"/>
       <c r="BT88" s="6"/>
       <c r="BU88" s="7"/>
       <c r="BV88" s="8"/>
@@ -7809,25 +7897,25 @@
       <c r="AX89" s="7"/>
       <c r="AY89" s="7"/>
       <c r="AZ89" s="8"/>
-      <c r="BA89" s="31"/>
-      <c r="BB89" s="32"/>
-      <c r="BC89" s="32"/>
-      <c r="BD89" s="32"/>
-      <c r="BE89" s="32"/>
-      <c r="BF89" s="32"/>
-      <c r="BG89" s="32"/>
-      <c r="BH89" s="32"/>
-      <c r="BI89" s="32"/>
-      <c r="BJ89" s="32"/>
-      <c r="BK89" s="32"/>
-      <c r="BL89" s="32"/>
-      <c r="BM89" s="32"/>
-      <c r="BN89" s="32"/>
-      <c r="BO89" s="32"/>
-      <c r="BP89" s="32"/>
-      <c r="BQ89" s="32"/>
-      <c r="BR89" s="32"/>
-      <c r="BS89" s="33"/>
+      <c r="BA89" s="27"/>
+      <c r="BB89" s="28"/>
+      <c r="BC89" s="28"/>
+      <c r="BD89" s="28"/>
+      <c r="BE89" s="28"/>
+      <c r="BF89" s="28"/>
+      <c r="BG89" s="28"/>
+      <c r="BH89" s="28"/>
+      <c r="BI89" s="28"/>
+      <c r="BJ89" s="28"/>
+      <c r="BK89" s="28"/>
+      <c r="BL89" s="28"/>
+      <c r="BM89" s="28"/>
+      <c r="BN89" s="28"/>
+      <c r="BO89" s="28"/>
+      <c r="BP89" s="28"/>
+      <c r="BQ89" s="28"/>
+      <c r="BR89" s="28"/>
+      <c r="BS89" s="29"/>
       <c r="BT89" s="6"/>
       <c r="BU89" s="7"/>
       <c r="BV89" s="8"/>
@@ -7885,25 +7973,25 @@
       <c r="AX90" s="7"/>
       <c r="AY90" s="7"/>
       <c r="AZ90" s="8"/>
-      <c r="BA90" s="31"/>
-      <c r="BB90" s="32"/>
-      <c r="BC90" s="32"/>
-      <c r="BD90" s="32"/>
-      <c r="BE90" s="32"/>
-      <c r="BF90" s="32"/>
-      <c r="BG90" s="32"/>
-      <c r="BH90" s="32"/>
-      <c r="BI90" s="32"/>
-      <c r="BJ90" s="32"/>
-      <c r="BK90" s="32"/>
-      <c r="BL90" s="32"/>
-      <c r="BM90" s="32"/>
-      <c r="BN90" s="32"/>
-      <c r="BO90" s="32"/>
-      <c r="BP90" s="32"/>
-      <c r="BQ90" s="32"/>
-      <c r="BR90" s="32"/>
-      <c r="BS90" s="33"/>
+      <c r="BA90" s="27"/>
+      <c r="BB90" s="28"/>
+      <c r="BC90" s="28"/>
+      <c r="BD90" s="28"/>
+      <c r="BE90" s="28"/>
+      <c r="BF90" s="28"/>
+      <c r="BG90" s="28"/>
+      <c r="BH90" s="28"/>
+      <c r="BI90" s="28"/>
+      <c r="BJ90" s="28"/>
+      <c r="BK90" s="28"/>
+      <c r="BL90" s="28"/>
+      <c r="BM90" s="28"/>
+      <c r="BN90" s="28"/>
+      <c r="BO90" s="28"/>
+      <c r="BP90" s="28"/>
+      <c r="BQ90" s="28"/>
+      <c r="BR90" s="28"/>
+      <c r="BS90" s="29"/>
       <c r="BT90" s="6"/>
       <c r="BU90" s="7"/>
       <c r="BV90" s="8"/>
@@ -7961,25 +8049,25 @@
       <c r="AX91" s="7"/>
       <c r="AY91" s="7"/>
       <c r="AZ91" s="8"/>
-      <c r="BA91" s="31"/>
-      <c r="BB91" s="32"/>
-      <c r="BC91" s="32"/>
-      <c r="BD91" s="32"/>
-      <c r="BE91" s="32"/>
-      <c r="BF91" s="32"/>
-      <c r="BG91" s="32"/>
-      <c r="BH91" s="32"/>
-      <c r="BI91" s="32"/>
-      <c r="BJ91" s="32"/>
-      <c r="BK91" s="32"/>
-      <c r="BL91" s="32"/>
-      <c r="BM91" s="32"/>
-      <c r="BN91" s="32"/>
-      <c r="BO91" s="32"/>
-      <c r="BP91" s="32"/>
-      <c r="BQ91" s="32"/>
-      <c r="BR91" s="32"/>
-      <c r="BS91" s="33"/>
+      <c r="BA91" s="27"/>
+      <c r="BB91" s="28"/>
+      <c r="BC91" s="28"/>
+      <c r="BD91" s="28"/>
+      <c r="BE91" s="28"/>
+      <c r="BF91" s="28"/>
+      <c r="BG91" s="28"/>
+      <c r="BH91" s="28"/>
+      <c r="BI91" s="28"/>
+      <c r="BJ91" s="28"/>
+      <c r="BK91" s="28"/>
+      <c r="BL91" s="28"/>
+      <c r="BM91" s="28"/>
+      <c r="BN91" s="28"/>
+      <c r="BO91" s="28"/>
+      <c r="BP91" s="28"/>
+      <c r="BQ91" s="28"/>
+      <c r="BR91" s="28"/>
+      <c r="BS91" s="29"/>
       <c r="BT91" s="6"/>
       <c r="BU91" s="7"/>
       <c r="BV91" s="8"/>
@@ -8037,25 +8125,25 @@
       <c r="AX92" s="7"/>
       <c r="AY92" s="7"/>
       <c r="AZ92" s="8"/>
-      <c r="BA92" s="31"/>
-      <c r="BB92" s="32"/>
-      <c r="BC92" s="32"/>
-      <c r="BD92" s="32"/>
-      <c r="BE92" s="32"/>
-      <c r="BF92" s="32"/>
-      <c r="BG92" s="32"/>
-      <c r="BH92" s="32"/>
-      <c r="BI92" s="32"/>
-      <c r="BJ92" s="32"/>
-      <c r="BK92" s="32"/>
-      <c r="BL92" s="32"/>
-      <c r="BM92" s="32"/>
-      <c r="BN92" s="32"/>
-      <c r="BO92" s="32"/>
-      <c r="BP92" s="32"/>
-      <c r="BQ92" s="32"/>
-      <c r="BR92" s="32"/>
-      <c r="BS92" s="33"/>
+      <c r="BA92" s="27"/>
+      <c r="BB92" s="28"/>
+      <c r="BC92" s="28"/>
+      <c r="BD92" s="28"/>
+      <c r="BE92" s="28"/>
+      <c r="BF92" s="28"/>
+      <c r="BG92" s="28"/>
+      <c r="BH92" s="28"/>
+      <c r="BI92" s="28"/>
+      <c r="BJ92" s="28"/>
+      <c r="BK92" s="28"/>
+      <c r="BL92" s="28"/>
+      <c r="BM92" s="28"/>
+      <c r="BN92" s="28"/>
+      <c r="BO92" s="28"/>
+      <c r="BP92" s="28"/>
+      <c r="BQ92" s="28"/>
+      <c r="BR92" s="28"/>
+      <c r="BS92" s="29"/>
       <c r="BT92" s="6"/>
       <c r="BU92" s="7"/>
       <c r="BV92" s="8"/>
@@ -8113,25 +8201,25 @@
       <c r="AX93" s="7"/>
       <c r="AY93" s="7"/>
       <c r="AZ93" s="8"/>
-      <c r="BA93" s="31"/>
-      <c r="BB93" s="32"/>
-      <c r="BC93" s="32"/>
-      <c r="BD93" s="32"/>
-      <c r="BE93" s="32"/>
-      <c r="BF93" s="32"/>
-      <c r="BG93" s="32"/>
-      <c r="BH93" s="32"/>
-      <c r="BI93" s="32"/>
-      <c r="BJ93" s="32"/>
-      <c r="BK93" s="32"/>
-      <c r="BL93" s="32"/>
-      <c r="BM93" s="32"/>
-      <c r="BN93" s="32"/>
-      <c r="BO93" s="32"/>
-      <c r="BP93" s="32"/>
-      <c r="BQ93" s="32"/>
-      <c r="BR93" s="32"/>
-      <c r="BS93" s="33"/>
+      <c r="BA93" s="27"/>
+      <c r="BB93" s="28"/>
+      <c r="BC93" s="28"/>
+      <c r="BD93" s="28"/>
+      <c r="BE93" s="28"/>
+      <c r="BF93" s="28"/>
+      <c r="BG93" s="28"/>
+      <c r="BH93" s="28"/>
+      <c r="BI93" s="28"/>
+      <c r="BJ93" s="28"/>
+      <c r="BK93" s="28"/>
+      <c r="BL93" s="28"/>
+      <c r="BM93" s="28"/>
+      <c r="BN93" s="28"/>
+      <c r="BO93" s="28"/>
+      <c r="BP93" s="28"/>
+      <c r="BQ93" s="28"/>
+      <c r="BR93" s="28"/>
+      <c r="BS93" s="29"/>
       <c r="BT93" s="6"/>
       <c r="BU93" s="7"/>
       <c r="BV93" s="8"/>
@@ -8189,25 +8277,25 @@
       <c r="AX94" s="7"/>
       <c r="AY94" s="7"/>
       <c r="AZ94" s="8"/>
-      <c r="BA94" s="31"/>
-      <c r="BB94" s="32"/>
-      <c r="BC94" s="32"/>
-      <c r="BD94" s="32"/>
-      <c r="BE94" s="32"/>
-      <c r="BF94" s="32"/>
-      <c r="BG94" s="32"/>
-      <c r="BH94" s="32"/>
-      <c r="BI94" s="32"/>
-      <c r="BJ94" s="32"/>
-      <c r="BK94" s="32"/>
-      <c r="BL94" s="32"/>
-      <c r="BM94" s="32"/>
-      <c r="BN94" s="32"/>
-      <c r="BO94" s="32"/>
-      <c r="BP94" s="32"/>
-      <c r="BQ94" s="32"/>
-      <c r="BR94" s="32"/>
-      <c r="BS94" s="33"/>
+      <c r="BA94" s="27"/>
+      <c r="BB94" s="28"/>
+      <c r="BC94" s="28"/>
+      <c r="BD94" s="28"/>
+      <c r="BE94" s="28"/>
+      <c r="BF94" s="28"/>
+      <c r="BG94" s="28"/>
+      <c r="BH94" s="28"/>
+      <c r="BI94" s="28"/>
+      <c r="BJ94" s="28"/>
+      <c r="BK94" s="28"/>
+      <c r="BL94" s="28"/>
+      <c r="BM94" s="28"/>
+      <c r="BN94" s="28"/>
+      <c r="BO94" s="28"/>
+      <c r="BP94" s="28"/>
+      <c r="BQ94" s="28"/>
+      <c r="BR94" s="28"/>
+      <c r="BS94" s="29"/>
       <c r="BT94" s="6"/>
       <c r="BU94" s="7"/>
       <c r="BV94" s="8"/>
@@ -8265,25 +8353,25 @@
       <c r="AX95" s="7"/>
       <c r="AY95" s="7"/>
       <c r="AZ95" s="8"/>
-      <c r="BA95" s="31"/>
-      <c r="BB95" s="32"/>
-      <c r="BC95" s="32"/>
-      <c r="BD95" s="32"/>
-      <c r="BE95" s="32"/>
-      <c r="BF95" s="32"/>
-      <c r="BG95" s="32"/>
-      <c r="BH95" s="32"/>
-      <c r="BI95" s="32"/>
-      <c r="BJ95" s="32"/>
-      <c r="BK95" s="32"/>
-      <c r="BL95" s="32"/>
-      <c r="BM95" s="32"/>
-      <c r="BN95" s="32"/>
-      <c r="BO95" s="32"/>
-      <c r="BP95" s="32"/>
-      <c r="BQ95" s="32"/>
-      <c r="BR95" s="32"/>
-      <c r="BS95" s="33"/>
+      <c r="BA95" s="27"/>
+      <c r="BB95" s="28"/>
+      <c r="BC95" s="28"/>
+      <c r="BD95" s="28"/>
+      <c r="BE95" s="28"/>
+      <c r="BF95" s="28"/>
+      <c r="BG95" s="28"/>
+      <c r="BH95" s="28"/>
+      <c r="BI95" s="28"/>
+      <c r="BJ95" s="28"/>
+      <c r="BK95" s="28"/>
+      <c r="BL95" s="28"/>
+      <c r="BM95" s="28"/>
+      <c r="BN95" s="28"/>
+      <c r="BO95" s="28"/>
+      <c r="BP95" s="28"/>
+      <c r="BQ95" s="28"/>
+      <c r="BR95" s="28"/>
+      <c r="BS95" s="29"/>
       <c r="BT95" s="6"/>
       <c r="BU95" s="7"/>
       <c r="BV95" s="8"/>
@@ -8341,25 +8429,25 @@
       <c r="AX96" s="7"/>
       <c r="AY96" s="7"/>
       <c r="AZ96" s="8"/>
-      <c r="BA96" s="31"/>
-      <c r="BB96" s="32"/>
-      <c r="BC96" s="32"/>
-      <c r="BD96" s="32"/>
-      <c r="BE96" s="32"/>
-      <c r="BF96" s="32"/>
-      <c r="BG96" s="32"/>
-      <c r="BH96" s="32"/>
-      <c r="BI96" s="32"/>
-      <c r="BJ96" s="32"/>
-      <c r="BK96" s="32"/>
-      <c r="BL96" s="32"/>
-      <c r="BM96" s="32"/>
-      <c r="BN96" s="32"/>
-      <c r="BO96" s="32"/>
-      <c r="BP96" s="32"/>
-      <c r="BQ96" s="32"/>
-      <c r="BR96" s="32"/>
-      <c r="BS96" s="33"/>
+      <c r="BA96" s="27"/>
+      <c r="BB96" s="28"/>
+      <c r="BC96" s="28"/>
+      <c r="BD96" s="28"/>
+      <c r="BE96" s="28"/>
+      <c r="BF96" s="28"/>
+      <c r="BG96" s="28"/>
+      <c r="BH96" s="28"/>
+      <c r="BI96" s="28"/>
+      <c r="BJ96" s="28"/>
+      <c r="BK96" s="28"/>
+      <c r="BL96" s="28"/>
+      <c r="BM96" s="28"/>
+      <c r="BN96" s="28"/>
+      <c r="BO96" s="28"/>
+      <c r="BP96" s="28"/>
+      <c r="BQ96" s="28"/>
+      <c r="BR96" s="28"/>
+      <c r="BS96" s="29"/>
       <c r="BT96" s="6"/>
       <c r="BU96" s="7"/>
       <c r="BV96" s="8"/>
@@ -8417,25 +8505,25 @@
       <c r="AX97" s="7"/>
       <c r="AY97" s="7"/>
       <c r="AZ97" s="8"/>
-      <c r="BA97" s="31"/>
-      <c r="BB97" s="32"/>
-      <c r="BC97" s="32"/>
-      <c r="BD97" s="32"/>
-      <c r="BE97" s="32"/>
-      <c r="BF97" s="32"/>
-      <c r="BG97" s="32"/>
-      <c r="BH97" s="32"/>
-      <c r="BI97" s="32"/>
-      <c r="BJ97" s="32"/>
-      <c r="BK97" s="32"/>
-      <c r="BL97" s="32"/>
-      <c r="BM97" s="32"/>
-      <c r="BN97" s="32"/>
-      <c r="BO97" s="32"/>
-      <c r="BP97" s="32"/>
-      <c r="BQ97" s="32"/>
-      <c r="BR97" s="32"/>
-      <c r="BS97" s="33"/>
+      <c r="BA97" s="27"/>
+      <c r="BB97" s="28"/>
+      <c r="BC97" s="28"/>
+      <c r="BD97" s="28"/>
+      <c r="BE97" s="28"/>
+      <c r="BF97" s="28"/>
+      <c r="BG97" s="28"/>
+      <c r="BH97" s="28"/>
+      <c r="BI97" s="28"/>
+      <c r="BJ97" s="28"/>
+      <c r="BK97" s="28"/>
+      <c r="BL97" s="28"/>
+      <c r="BM97" s="28"/>
+      <c r="BN97" s="28"/>
+      <c r="BO97" s="28"/>
+      <c r="BP97" s="28"/>
+      <c r="BQ97" s="28"/>
+      <c r="BR97" s="28"/>
+      <c r="BS97" s="29"/>
       <c r="BT97" s="6"/>
       <c r="BU97" s="7"/>
       <c r="BV97" s="8"/>
@@ -8493,25 +8581,25 @@
       <c r="AX98" s="7"/>
       <c r="AY98" s="7"/>
       <c r="AZ98" s="8"/>
-      <c r="BA98" s="31"/>
-      <c r="BB98" s="32"/>
-      <c r="BC98" s="32"/>
-      <c r="BD98" s="32"/>
-      <c r="BE98" s="32"/>
-      <c r="BF98" s="32"/>
-      <c r="BG98" s="32"/>
-      <c r="BH98" s="32"/>
-      <c r="BI98" s="32"/>
-      <c r="BJ98" s="32"/>
-      <c r="BK98" s="32"/>
-      <c r="BL98" s="32"/>
-      <c r="BM98" s="32"/>
-      <c r="BN98" s="32"/>
-      <c r="BO98" s="32"/>
-      <c r="BP98" s="32"/>
-      <c r="BQ98" s="32"/>
-      <c r="BR98" s="32"/>
-      <c r="BS98" s="33"/>
+      <c r="BA98" s="27"/>
+      <c r="BB98" s="28"/>
+      <c r="BC98" s="28"/>
+      <c r="BD98" s="28"/>
+      <c r="BE98" s="28"/>
+      <c r="BF98" s="28"/>
+      <c r="BG98" s="28"/>
+      <c r="BH98" s="28"/>
+      <c r="BI98" s="28"/>
+      <c r="BJ98" s="28"/>
+      <c r="BK98" s="28"/>
+      <c r="BL98" s="28"/>
+      <c r="BM98" s="28"/>
+      <c r="BN98" s="28"/>
+      <c r="BO98" s="28"/>
+      <c r="BP98" s="28"/>
+      <c r="BQ98" s="28"/>
+      <c r="BR98" s="28"/>
+      <c r="BS98" s="29"/>
       <c r="BT98" s="6"/>
       <c r="BU98" s="7"/>
       <c r="BV98" s="8"/>
@@ -8569,25 +8657,25 @@
       <c r="AX99" s="7"/>
       <c r="AY99" s="7"/>
       <c r="AZ99" s="8"/>
-      <c r="BA99" s="31"/>
-      <c r="BB99" s="32"/>
-      <c r="BC99" s="32"/>
-      <c r="BD99" s="32"/>
-      <c r="BE99" s="32"/>
-      <c r="BF99" s="32"/>
-      <c r="BG99" s="32"/>
-      <c r="BH99" s="32"/>
-      <c r="BI99" s="32"/>
-      <c r="BJ99" s="32"/>
-      <c r="BK99" s="32"/>
-      <c r="BL99" s="32"/>
-      <c r="BM99" s="32"/>
-      <c r="BN99" s="32"/>
-      <c r="BO99" s="32"/>
-      <c r="BP99" s="32"/>
-      <c r="BQ99" s="32"/>
-      <c r="BR99" s="32"/>
-      <c r="BS99" s="33"/>
+      <c r="BA99" s="27"/>
+      <c r="BB99" s="28"/>
+      <c r="BC99" s="28"/>
+      <c r="BD99" s="28"/>
+      <c r="BE99" s="28"/>
+      <c r="BF99" s="28"/>
+      <c r="BG99" s="28"/>
+      <c r="BH99" s="28"/>
+      <c r="BI99" s="28"/>
+      <c r="BJ99" s="28"/>
+      <c r="BK99" s="28"/>
+      <c r="BL99" s="28"/>
+      <c r="BM99" s="28"/>
+      <c r="BN99" s="28"/>
+      <c r="BO99" s="28"/>
+      <c r="BP99" s="28"/>
+      <c r="BQ99" s="28"/>
+      <c r="BR99" s="28"/>
+      <c r="BS99" s="29"/>
       <c r="BT99" s="6"/>
       <c r="BU99" s="7"/>
       <c r="BV99" s="8"/>
@@ -8645,25 +8733,25 @@
       <c r="AX100" s="7"/>
       <c r="AY100" s="7"/>
       <c r="AZ100" s="8"/>
-      <c r="BA100" s="31"/>
-      <c r="BB100" s="32"/>
-      <c r="BC100" s="32"/>
-      <c r="BD100" s="32"/>
-      <c r="BE100" s="32"/>
-      <c r="BF100" s="32"/>
-      <c r="BG100" s="32"/>
-      <c r="BH100" s="32"/>
-      <c r="BI100" s="32"/>
-      <c r="BJ100" s="32"/>
-      <c r="BK100" s="32"/>
-      <c r="BL100" s="32"/>
-      <c r="BM100" s="32"/>
-      <c r="BN100" s="32"/>
-      <c r="BO100" s="32"/>
-      <c r="BP100" s="32"/>
-      <c r="BQ100" s="32"/>
-      <c r="BR100" s="32"/>
-      <c r="BS100" s="33"/>
+      <c r="BA100" s="27"/>
+      <c r="BB100" s="28"/>
+      <c r="BC100" s="28"/>
+      <c r="BD100" s="28"/>
+      <c r="BE100" s="28"/>
+      <c r="BF100" s="28"/>
+      <c r="BG100" s="28"/>
+      <c r="BH100" s="28"/>
+      <c r="BI100" s="28"/>
+      <c r="BJ100" s="28"/>
+      <c r="BK100" s="28"/>
+      <c r="BL100" s="28"/>
+      <c r="BM100" s="28"/>
+      <c r="BN100" s="28"/>
+      <c r="BO100" s="28"/>
+      <c r="BP100" s="28"/>
+      <c r="BQ100" s="28"/>
+      <c r="BR100" s="28"/>
+      <c r="BS100" s="29"/>
       <c r="BT100" s="6"/>
       <c r="BU100" s="7"/>
       <c r="BV100" s="8"/>
@@ -8721,25 +8809,25 @@
       <c r="AX101" s="7"/>
       <c r="AY101" s="7"/>
       <c r="AZ101" s="8"/>
-      <c r="BA101" s="31"/>
-      <c r="BB101" s="32"/>
-      <c r="BC101" s="32"/>
-      <c r="BD101" s="32"/>
-      <c r="BE101" s="32"/>
-      <c r="BF101" s="32"/>
-      <c r="BG101" s="32"/>
-      <c r="BH101" s="32"/>
-      <c r="BI101" s="32"/>
-      <c r="BJ101" s="32"/>
-      <c r="BK101" s="32"/>
-      <c r="BL101" s="32"/>
-      <c r="BM101" s="32"/>
-      <c r="BN101" s="32"/>
-      <c r="BO101" s="32"/>
-      <c r="BP101" s="32"/>
-      <c r="BQ101" s="32"/>
-      <c r="BR101" s="32"/>
-      <c r="BS101" s="33"/>
+      <c r="BA101" s="27"/>
+      <c r="BB101" s="28"/>
+      <c r="BC101" s="28"/>
+      <c r="BD101" s="28"/>
+      <c r="BE101" s="28"/>
+      <c r="BF101" s="28"/>
+      <c r="BG101" s="28"/>
+      <c r="BH101" s="28"/>
+      <c r="BI101" s="28"/>
+      <c r="BJ101" s="28"/>
+      <c r="BK101" s="28"/>
+      <c r="BL101" s="28"/>
+      <c r="BM101" s="28"/>
+      <c r="BN101" s="28"/>
+      <c r="BO101" s="28"/>
+      <c r="BP101" s="28"/>
+      <c r="BQ101" s="28"/>
+      <c r="BR101" s="28"/>
+      <c r="BS101" s="29"/>
       <c r="BT101" s="6"/>
       <c r="BU101" s="7"/>
       <c r="BV101" s="8"/>
@@ -9749,7 +9837,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BT3:BV101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BT3:BV101" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"済"</formula1>
     </dataValidation>
   </dataValidations>
